--- a/smartlockv2/SmartLock数据库详细设计书.xlsx
+++ b/smartlockv2/SmartLock数据库详细设计书.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wzscq\Documents\GitHub\crvframe\service\apps\smartlockv2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\self\crvframe\crvframe\service\apps\smartlockv2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A60099-3E1F-4A39-AE8D-50C977C32386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="848" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="848" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="67" r:id="rId1"/>
@@ -697,29 +696,29 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -734,7 +733,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -749,7 +748,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -758,7 +757,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -771,7 +770,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -779,7 +778,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -788,14 +787,14 @@
       <b/>
       <sz val="22"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -803,14 +802,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1038,7 +1037,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1126,27 +1125,6 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1186,6 +1164,27 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1218,16 +1217,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2" xfId="2"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="常规 2 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="常规 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="常规 5" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="常规 2" xfId="5"/>
+    <cellStyle name="常规 2 2" xfId="3"/>
+    <cellStyle name="常规 2 3 2" xfId="4"/>
+    <cellStyle name="常规 3" xfId="8"/>
+    <cellStyle name="常规 5" xfId="6"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="千位分隔 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="千位分隔 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="千位分隔 2" xfId="9"/>
+    <cellStyle name="千位分隔 2 2" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1509,961 +1508,913 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AE34"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G24" sqref="G24:L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="2.375" style="20"/>
+    <col min="1" max="16384" width="2.42578125" style="20"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
     </row>
     <row r="3" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
     </row>
     <row r="4" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
     </row>
     <row r="6" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
     </row>
     <row r="8" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="48"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="41"/>
     </row>
     <row r="9" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="51"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="43"/>
+      <c r="AE9" s="44"/>
     </row>
     <row r="10" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B10" s="49"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="50"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="51"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="43"/>
+      <c r="AE10" s="44"/>
     </row>
     <row r="11" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="51"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="43"/>
+      <c r="AD11" s="43"/>
+      <c r="AE11" s="44"/>
     </row>
     <row r="12" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="50"/>
-      <c r="AA12" s="50"/>
-      <c r="AB12" s="50"/>
-      <c r="AC12" s="50"/>
-      <c r="AD12" s="50"/>
-      <c r="AE12" s="51"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="43"/>
+      <c r="AC12" s="43"/>
+      <c r="AD12" s="43"/>
+      <c r="AE12" s="44"/>
     </row>
     <row r="13" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="50"/>
-      <c r="AD13" s="50"/>
-      <c r="AE13" s="51"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="43"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="43"/>
+      <c r="AE13" s="44"/>
     </row>
     <row r="14" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="50"/>
-      <c r="Y14" s="50"/>
-      <c r="Z14" s="50"/>
-      <c r="AA14" s="50"/>
-      <c r="AB14" s="50"/>
-      <c r="AC14" s="50"/>
-      <c r="AD14" s="50"/>
-      <c r="AE14" s="51"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="43"/>
+      <c r="AC14" s="43"/>
+      <c r="AD14" s="43"/>
+      <c r="AE14" s="44"/>
     </row>
     <row r="15" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="50"/>
-      <c r="V15" s="50"/>
-      <c r="W15" s="50"/>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="50"/>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="50"/>
-      <c r="AB15" s="50"/>
-      <c r="AC15" s="50"/>
-      <c r="AD15" s="50"/>
-      <c r="AE15" s="51"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="43"/>
+      <c r="AC15" s="43"/>
+      <c r="AD15" s="43"/>
+      <c r="AE15" s="44"/>
     </row>
     <row r="16" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B16" s="52"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="53"/>
-      <c r="AB16" s="53"/>
-      <c r="AC16" s="53"/>
-      <c r="AD16" s="53"/>
-      <c r="AE16" s="54"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="46"/>
+      <c r="AC16" s="46"/>
+      <c r="AD16" s="46"/>
+      <c r="AE16" s="47"/>
     </row>
     <row r="20" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45" t="s">
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45" t="s">
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="45"/>
-      <c r="AD20" s="45"/>
-      <c r="AE20" s="45"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="38"/>
+      <c r="AE20" s="38"/>
     </row>
     <row r="21" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B21" s="36">
+      <c r="B21" s="48">
         <v>1</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="39">
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="49">
         <v>44901</v>
       </c>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="40" t="s">
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="36"/>
-      <c r="AA21" s="36"/>
-      <c r="AB21" s="36"/>
-      <c r="AC21" s="36"/>
-      <c r="AD21" s="36"/>
-      <c r="AE21" s="36"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="48"/>
+      <c r="AE21" s="48"/>
     </row>
     <row r="22" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="41"/>
-      <c r="AB22" s="41"/>
-      <c r="AC22" s="41"/>
-      <c r="AD22" s="41"/>
-      <c r="AE22" s="41"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="51"/>
+      <c r="AA22" s="51"/>
+      <c r="AB22" s="51"/>
+      <c r="AC22" s="51"/>
+      <c r="AD22" s="51"/>
+      <c r="AE22" s="51"/>
     </row>
     <row r="23" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="36"/>
-      <c r="AA23" s="36"/>
-      <c r="AB23" s="36"/>
-      <c r="AC23" s="36"/>
-      <c r="AD23" s="36"/>
-      <c r="AE23" s="36"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="48"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="48"/>
+      <c r="AB23" s="48"/>
+      <c r="AC23" s="48"/>
+      <c r="AD23" s="48"/>
+      <c r="AE23" s="48"/>
     </row>
     <row r="24" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="38"/>
-      <c r="AD24" s="38"/>
-      <c r="AE24" s="38"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="53"/>
+      <c r="AB24" s="53"/>
+      <c r="AC24" s="53"/>
+      <c r="AD24" s="53"/>
+      <c r="AE24" s="53"/>
     </row>
     <row r="25" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="36"/>
-      <c r="AA25" s="36"/>
-      <c r="AB25" s="36"/>
-      <c r="AC25" s="36"/>
-      <c r="AD25" s="36"/>
-      <c r="AE25" s="36"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="48"/>
+      <c r="AB25" s="48"/>
+      <c r="AC25" s="48"/>
+      <c r="AD25" s="48"/>
+      <c r="AE25" s="48"/>
     </row>
     <row r="26" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="36"/>
-      <c r="AA26" s="36"/>
-      <c r="AB26" s="36"/>
-      <c r="AC26" s="36"/>
-      <c r="AD26" s="36"/>
-      <c r="AE26" s="36"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="48"/>
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="48"/>
+      <c r="AB26" s="48"/>
+      <c r="AC26" s="48"/>
+      <c r="AD26" s="48"/>
+      <c r="AE26" s="48"/>
     </row>
     <row r="27" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="36"/>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="36"/>
-      <c r="AA27" s="36"/>
-      <c r="AB27" s="36"/>
-      <c r="AC27" s="36"/>
-      <c r="AD27" s="36"/>
-      <c r="AE27" s="36"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="48"/>
+      <c r="X27" s="48"/>
+      <c r="Y27" s="48"/>
+      <c r="Z27" s="48"/>
+      <c r="AA27" s="48"/>
+      <c r="AB27" s="48"/>
+      <c r="AC27" s="48"/>
+      <c r="AD27" s="48"/>
+      <c r="AE27" s="48"/>
     </row>
     <row r="28" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="36"/>
-      <c r="AC28" s="36"/>
-      <c r="AD28" s="36"/>
-      <c r="AE28" s="36"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="48"/>
+      <c r="Z28" s="48"/>
+      <c r="AA28" s="48"/>
+      <c r="AB28" s="48"/>
+      <c r="AC28" s="48"/>
+      <c r="AD28" s="48"/>
+      <c r="AE28" s="48"/>
     </row>
     <row r="29" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="36"/>
-      <c r="Z29" s="36"/>
-      <c r="AA29" s="36"/>
-      <c r="AB29" s="36"/>
-      <c r="AC29" s="36"/>
-      <c r="AD29" s="36"/>
-      <c r="AE29" s="36"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="48"/>
+      <c r="AC29" s="48"/>
+      <c r="AD29" s="48"/>
+      <c r="AE29" s="48"/>
     </row>
     <row r="30" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="36"/>
-      <c r="Z30" s="36"/>
-      <c r="AA30" s="36"/>
-      <c r="AB30" s="36"/>
-      <c r="AC30" s="36"/>
-      <c r="AD30" s="36"/>
-      <c r="AE30" s="36"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="48"/>
+      <c r="Z30" s="48"/>
+      <c r="AA30" s="48"/>
+      <c r="AB30" s="48"/>
+      <c r="AC30" s="48"/>
+      <c r="AD30" s="48"/>
+      <c r="AE30" s="48"/>
     </row>
     <row r="31" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="36"/>
-      <c r="AA31" s="36"/>
-      <c r="AB31" s="36"/>
-      <c r="AC31" s="36"/>
-      <c r="AD31" s="36"/>
-      <c r="AE31" s="36"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="48"/>
+      <c r="W31" s="48"/>
+      <c r="X31" s="48"/>
+      <c r="Y31" s="48"/>
+      <c r="Z31" s="48"/>
+      <c r="AA31" s="48"/>
+      <c r="AB31" s="48"/>
+      <c r="AC31" s="48"/>
+      <c r="AD31" s="48"/>
+      <c r="AE31" s="48"/>
     </row>
     <row r="32" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="36"/>
-      <c r="Y32" s="36"/>
-      <c r="Z32" s="36"/>
-      <c r="AA32" s="36"/>
-      <c r="AB32" s="36"/>
-      <c r="AC32" s="36"/>
-      <c r="AD32" s="36"/>
-      <c r="AE32" s="36"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="48"/>
+      <c r="AA32" s="48"/>
+      <c r="AB32" s="48"/>
+      <c r="AC32" s="48"/>
+      <c r="AD32" s="48"/>
+      <c r="AE32" s="48"/>
     </row>
     <row r="33" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="36"/>
-      <c r="X33" s="36"/>
-      <c r="Y33" s="36"/>
-      <c r="Z33" s="36"/>
-      <c r="AA33" s="36"/>
-      <c r="AB33" s="36"/>
-      <c r="AC33" s="36"/>
-      <c r="AD33" s="36"/>
-      <c r="AE33" s="36"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="48"/>
+      <c r="W33" s="48"/>
+      <c r="X33" s="48"/>
+      <c r="Y33" s="48"/>
+      <c r="Z33" s="48"/>
+      <c r="AA33" s="48"/>
+      <c r="AB33" s="48"/>
+      <c r="AC33" s="48"/>
+      <c r="AD33" s="48"/>
+      <c r="AE33" s="48"/>
     </row>
     <row r="34" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="36"/>
-      <c r="AA34" s="36"/>
-      <c r="AB34" s="36"/>
-      <c r="AC34" s="36"/>
-      <c r="AD34" s="36"/>
-      <c r="AE34" s="36"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="48"/>
+      <c r="V34" s="48"/>
+      <c r="W34" s="48"/>
+      <c r="X34" s="48"/>
+      <c r="Y34" s="48"/>
+      <c r="Z34" s="48"/>
+      <c r="AA34" s="48"/>
+      <c r="AB34" s="48"/>
+      <c r="AC34" s="48"/>
+      <c r="AD34" s="48"/>
+      <c r="AE34" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="B4:AE4"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="M20:S20"/>
-    <mergeCell ref="T20:AE20"/>
-    <mergeCell ref="B8:AE16"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="M21:S21"/>
-    <mergeCell ref="T21:AE21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="M22:S22"/>
-    <mergeCell ref="T22:AE22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="M23:S23"/>
-    <mergeCell ref="T23:AE23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="M24:S24"/>
-    <mergeCell ref="T24:AE24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="M25:S25"/>
-    <mergeCell ref="T25:AE25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="M26:S26"/>
-    <mergeCell ref="T26:AE26"/>
-    <mergeCell ref="T27:AE27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="M28:S28"/>
-    <mergeCell ref="T28:AE28"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="G34:L34"/>
-    <mergeCell ref="M34:S34"/>
-    <mergeCell ref="T34:AE34"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="M31:S31"/>
-    <mergeCell ref="T31:AE31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="M32:S32"/>
-    <mergeCell ref="T32:AE32"/>
     <mergeCell ref="B2:AE3"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="G33:L33"/>
@@ -2480,6 +2431,54 @@
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="G27:L27"/>
     <mergeCell ref="M27:S27"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="M34:S34"/>
+    <mergeCell ref="T34:AE34"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="M31:S31"/>
+    <mergeCell ref="T31:AE31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="M32:S32"/>
+    <mergeCell ref="T32:AE32"/>
+    <mergeCell ref="T27:AE27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="M28:S28"/>
+    <mergeCell ref="T28:AE28"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="M25:S25"/>
+    <mergeCell ref="T25:AE25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="M26:S26"/>
+    <mergeCell ref="T26:AE26"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="M23:S23"/>
+    <mergeCell ref="T23:AE23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="M24:S24"/>
+    <mergeCell ref="T24:AE24"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="M21:S21"/>
+    <mergeCell ref="T21:AE21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="M22:S22"/>
+    <mergeCell ref="T22:AE22"/>
+    <mergeCell ref="B4:AE4"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="M20:S20"/>
+    <mergeCell ref="T20:AE20"/>
+    <mergeCell ref="B8:AE16"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2488,27 +2487,27 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A51B5376-25E8-4606-91B6-76D622AC4E2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.625" style="1" customWidth="1"/>
-    <col min="9" max="11" width="59.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="44.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5703125" style="1" customWidth="1"/>
+    <col min="9" max="11" width="59.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2892,34 +2891,34 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N1" location="目录!A1" display="目录" xr:uid="{35CD43A3-9F51-4F18-A0BE-581ED29001EE}"/>
+    <hyperlink ref="N1" location="目录!A1" display="目录"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="59.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="44.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.375" style="1" customWidth="1"/>
+    <col min="9" max="11" width="59.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3583,34 +3582,34 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N1" location="目录!A1" display="目录" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="N1" location="目录!A1" display="目录"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3:L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="59.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="44.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.375" style="1" customWidth="1"/>
+    <col min="9" max="11" width="59.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3748,7 +3747,7 @@
         <v>{"field":"lock_id","labelRegexp":"智能锁ID","excelRangeType":"table"},</v>
       </c>
       <c r="L4" s="1" t="str">
-        <f t="shared" ref="L4:L13" si="3">"{""field"":"""&amp;A4&amp;""",""width"":150},"</f>
+        <f t="shared" ref="L4:L10" si="3">"{""field"":"""&amp;A4&amp;""",""width"":150},"</f>
         <v>{"field":"lock_id","width":150},</v>
       </c>
     </row>
@@ -4002,34 +4001,34 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N1" location="目录!A1" display="目录" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="N1" location="目录!A1" display="目录"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="59.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="44.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.375" style="1" customWidth="1"/>
+    <col min="9" max="11" width="59.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4529,34 +4528,34 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N1" location="目录!A1" display="目录" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="N1" location="目录!A1" display="目录"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="59.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="44.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.375" style="1" customWidth="1"/>
+    <col min="9" max="11" width="59.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4944,34 +4943,34 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N1" location="目录!A1" display="目录" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="N1" location="目录!A1" display="目录"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="L3" sqref="L3:L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="59.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="44.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.375" style="1" customWidth="1"/>
+    <col min="9" max="11" width="59.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5359,34 +5358,34 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N1" location="目录!A1" display="目录" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="N1" location="目录!A1" display="目录"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="L3" sqref="L3:L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="59.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="44.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.375" style="1" customWidth="1"/>
+    <col min="9" max="11" width="59.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5738,34 +5737,34 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N1" location="目录!A1" display="目录" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="N1" location="目录!A1" display="目录"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE9"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="2.375" style="12"/>
-    <col min="4" max="4" width="13.75" style="12" customWidth="1"/>
-    <col min="5" max="6" width="2.375" style="12" customWidth="1"/>
+    <col min="1" max="3" width="2.42578125" style="12"/>
+    <col min="4" max="4" width="13.7109375" style="12" customWidth="1"/>
+    <col min="5" max="6" width="2.42578125" style="12" customWidth="1"/>
     <col min="7" max="7" width="4" style="12" customWidth="1"/>
-    <col min="8" max="11" width="2.375" style="12" customWidth="1"/>
-    <col min="12" max="12" width="3.375" style="12" customWidth="1"/>
-    <col min="13" max="13" width="3.25" style="12" customWidth="1"/>
-    <col min="14" max="16" width="3.375" style="12" customWidth="1"/>
-    <col min="17" max="17" width="7.75" style="12" customWidth="1"/>
-    <col min="18" max="18" width="3.125" style="12" customWidth="1"/>
-    <col min="19" max="19" width="2.375" style="12" customWidth="1"/>
-    <col min="20" max="16384" width="2.375" style="12"/>
+    <col min="8" max="11" width="2.42578125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="3.42578125" style="12" customWidth="1"/>
+    <col min="13" max="13" width="3.28515625" style="12" customWidth="1"/>
+    <col min="14" max="16" width="3.42578125" style="12" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" style="12" customWidth="1"/>
+    <col min="18" max="18" width="3.140625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="2.42578125" style="12" customWidth="1"/>
+    <col min="20" max="16384" width="2.42578125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="14.25" customHeight="1">
@@ -5840,27 +5839,27 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="59.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="44.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.375" style="1" customWidth="1"/>
+    <col min="9" max="11" width="59.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6286,32 +6285,32 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N1" location="目录!A1" display="目录" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="N1" location="目录!A1" display="目录"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="18.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6573,7 +6572,7 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J1" location="目录!A1" display="目录" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+    <hyperlink ref="J1" location="目录!A1" display="目录"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="59" orientation="portrait" r:id="rId1"/>
@@ -6581,29 +6580,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="2.375" style="18"/>
-    <col min="5" max="5" width="31.375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="29.75" style="18" customWidth="1"/>
+    <col min="1" max="4" width="2.42578125" style="18"/>
+    <col min="5" max="5" width="31.42578125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" style="18" customWidth="1"/>
     <col min="7" max="7" width="15" style="18" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="18" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="18" customWidth="1"/>
     <col min="9" max="9" width="14" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.25" style="18" customWidth="1"/>
-    <col min="11" max="27" width="2.375" style="18"/>
-    <col min="28" max="28" width="2.375" style="18" hidden="1" customWidth="1"/>
-    <col min="29" max="37" width="2.375" style="18"/>
-    <col min="38" max="38" width="16.375" style="18" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="12.625" style="18" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="24.375" style="18" hidden="1" customWidth="1"/>
-    <col min="41" max="16384" width="2.375" style="18"/>
+    <col min="10" max="10" width="19.28515625" style="18" customWidth="1"/>
+    <col min="11" max="27" width="2.42578125" style="18"/>
+    <col min="28" max="28" width="2.42578125" style="18" hidden="1" customWidth="1"/>
+    <col min="29" max="37" width="2.42578125" style="18"/>
+    <col min="38" max="38" width="16.42578125" style="18" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="12.5703125" style="18" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="24.42578125" style="18" hidden="1" customWidth="1"/>
+    <col min="41" max="16384" width="2.42578125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1">
@@ -6991,21 +6990,21 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E4" location="sl_person!A1" display="sl_person" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E5" location="sl_room!A1" display="sl_room" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="E6" location="sl_area_type!A1" display="sl_area_type" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="E7" location="sl_lock!A1" display="sl_lock" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="E8" location="sl_key!A1" display="sl_key" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="E9" location="sl_key_controller!A1" display="sl_key_controller" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="E10" location="sl_lock_status_record!A1" display="sl_lock_status_record" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="E11" location="sl_application!A1" display="sl_application" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="E12" location="sl_key_authorization!A1" display="sl_key_authorization" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="E13" location="sl_lock_authorization!A1" display="sl_lock_authorization" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="E14" location="sl_lock_sl_lock_authorization!A1" display="sl_lock_sl_lock_authorization" xr:uid="{FBCD2E27-29BA-4035-9E5D-1DC1CF2208B9}"/>
-    <hyperlink ref="E15" location="sl_lock_authorization_sl_person!A1" display="sl_lock_authorization_sl_person" xr:uid="{19BC9729-1EEE-42FC-8449-6D1A6042D622}"/>
-    <hyperlink ref="E16" location="sl_application_sl_key_authoriza!A1" display="sl_application_sl_key_authoriza" xr:uid="{CED4F53F-55E5-46BE-ABEA-11E9E3F405B2}"/>
-    <hyperlink ref="E17" location="sl_application_sl_lock!A1" display="sl_application_sl_lock" xr:uid="{C8076BB8-EF2F-43E7-8B33-8F3B93B930E3}"/>
-    <hyperlink ref="E18" location="sl_application_sl_person!A1" display="sl_application_sl_person" xr:uid="{3B820C03-089C-47DE-854F-16ACC936DFF5}"/>
+    <hyperlink ref="E4" location="sl_person!A1" display="sl_person"/>
+    <hyperlink ref="E5" location="sl_room!A1" display="sl_room"/>
+    <hyperlink ref="E6" location="sl_area_type!A1" display="sl_area_type"/>
+    <hyperlink ref="E7" location="sl_lock!A1" display="sl_lock"/>
+    <hyperlink ref="E8" location="sl_key!A1" display="sl_key"/>
+    <hyperlink ref="E9" location="sl_key_controller!A1" display="sl_key_controller"/>
+    <hyperlink ref="E10" location="sl_lock_status_record!A1" display="sl_lock_status_record"/>
+    <hyperlink ref="E11" location="sl_application!A1" display="sl_application"/>
+    <hyperlink ref="E12" location="sl_key_authorization!A1" display="sl_key_authorization"/>
+    <hyperlink ref="E13" location="sl_lock_authorization!A1" display="sl_lock_authorization"/>
+    <hyperlink ref="E14" location="sl_lock_sl_lock_authorization!A1" display="sl_lock_sl_lock_authorization"/>
+    <hyperlink ref="E15" location="sl_lock_authorization_sl_person!A1" display="sl_lock_authorization_sl_person"/>
+    <hyperlink ref="E16" location="sl_application_sl_key_authoriza!A1" display="sl_application_sl_key_authoriza"/>
+    <hyperlink ref="E17" location="sl_application_sl_lock!A1" display="sl_application_sl_lock"/>
+    <hyperlink ref="E18" location="sl_application_sl_person!A1" display="sl_application_sl_person"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" r:id="rId1"/>
@@ -7013,27 +7012,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="59.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="44.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.375" style="1" customWidth="1"/>
+    <col min="9" max="11" width="59.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -7689,7 +7688,7 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N1" location="目录!A1" display="目录" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="N1" location="目录!A1" display="目录"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="59" orientation="portrait" r:id="rId1"/>
@@ -7697,27 +7696,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.625" style="1" customWidth="1"/>
-    <col min="9" max="11" width="59.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="44.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5703125" style="1" customWidth="1"/>
+    <col min="9" max="11" width="59.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -8109,34 +8108,34 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N1" location="目录!A1" display="目录" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="N1" location="目录!A1" display="目录"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B087F7-7A6C-42A5-A325-B06FC844A6E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.625" style="1" customWidth="1"/>
-    <col min="9" max="11" width="59.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="44.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5703125" style="1" customWidth="1"/>
+    <col min="9" max="11" width="59.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -8520,34 +8519,34 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N1" location="目录!A1" display="目录" xr:uid="{0CFE50D6-400A-442D-8587-8B25729B65F0}"/>
+    <hyperlink ref="N1" location="目录!A1" display="目录"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADAE69B-D406-4076-BE4A-CFCBF92B93D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.625" style="1" customWidth="1"/>
-    <col min="9" max="11" width="59.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="44.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5703125" style="1" customWidth="1"/>
+    <col min="9" max="11" width="59.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -8931,32 +8930,32 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N1" location="目录!A1" display="目录" xr:uid="{6E13B7E7-01E6-4FFE-84BE-0AF2B91003AC}"/>
+    <hyperlink ref="N1" location="目录!A1" display="目录"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8A09D6-6748-4C87-A0D5-EF0BFE56942C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.625" style="1" customWidth="1"/>
-    <col min="9" max="11" width="59.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="44.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5703125" style="1" customWidth="1"/>
+    <col min="9" max="11" width="59.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -9334,34 +9333,34 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N1" location="目录!A1" display="目录" xr:uid="{F5E5FC81-46C3-4C04-BBE1-D9CB545A6F74}"/>
+    <hyperlink ref="N1" location="目录!A1" display="目录"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.625" style="1" customWidth="1"/>
-    <col min="9" max="11" width="59.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="44.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5703125" style="1" customWidth="1"/>
+    <col min="9" max="11" width="59.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -9810,35 +9809,35 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N1" location="目录!A1" display="目录" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="N1" location="目录!A1" display="目录"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3810C0-CFA6-466F-A277-E81E07F55B10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="43.75" style="1" customWidth="1"/>
-    <col min="10" max="11" width="59.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="44.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="43.7109375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="59.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -10222,7 +10221,7 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N1" location="目录!A1" display="目录" xr:uid="{4C229C68-DD62-4468-AEC3-42E08C82B179}"/>
+    <hyperlink ref="N1" location="目录!A1" display="目录"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/smartlockv2/SmartLock数据库详细设计书.xlsx
+++ b/smartlockv2/SmartLock数据库详细设计书.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\self\crvframe\crvframe\service\apps\smartlockv2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wzscq\Documents\GitHub\crvframe\service\apps\smartlockv2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8078B0A3-0BD1-4975-8EF9-47B74894B1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="848" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="848" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="67" r:id="rId1"/>
@@ -25,34 +26,25 @@
     <sheet name="sl_application" sheetId="163" r:id="rId11"/>
     <sheet name="sl_lock_status_record" sheetId="162" r:id="rId12"/>
     <sheet name="sl_lock" sheetId="159" r:id="rId13"/>
-    <sheet name="sl_key_controller" sheetId="161" r:id="rId14"/>
-    <sheet name="sl_key" sheetId="160" r:id="rId15"/>
-    <sheet name="sl_area_type" sheetId="158" r:id="rId16"/>
-    <sheet name="ER图" sheetId="69" state="hidden" r:id="rId17"/>
-    <sheet name="sl_room" sheetId="157" r:id="rId18"/>
-    <sheet name="field" sheetId="114" state="hidden" r:id="rId19"/>
+    <sheet name="sl_lock_hub" sheetId="171" r:id="rId14"/>
+    <sheet name="sl_key_controller" sheetId="161" r:id="rId15"/>
+    <sheet name="sl_key" sheetId="160" r:id="rId16"/>
+    <sheet name="sl_area_type" sheetId="158" r:id="rId17"/>
+    <sheet name="ER图" sheetId="69" state="hidden" r:id="rId18"/>
+    <sheet name="sl_room" sheetId="157" r:id="rId19"/>
+    <sheet name="field" sheetId="114" state="hidden" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="18">field!$A$1:$I$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="19">field!$A$1:$I$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">sl_person!$A$1:$L$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">目录!$A$1:$H$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="216">
   <si>
     <t>数据库详细设计书</t>
   </si>
@@ -692,33 +684,101 @@
     <t>applications</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
+  <si>
+    <t>sl_lock_hub</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>sl_lock_hub</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能锁网关信息表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以使用网关IP地址</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>网关IP</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>master_hub</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>slaver_hub</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>主网关</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>备份网关</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP地址</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理机</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_controller</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>钥匙管理机</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -733,7 +793,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -748,7 +808,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -757,7 +817,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -770,7 +830,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -778,7 +838,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -787,14 +847,14 @@
       <b/>
       <sz val="22"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -802,19 +862,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -878,6 +938,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,7 +1103,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1045,7 +1111,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1125,6 +1191,27 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1164,27 +1251,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1215,18 +1281,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="5"/>
-    <cellStyle name="常规 2 2" xfId="3"/>
-    <cellStyle name="常规 2 3 2" xfId="4"/>
-    <cellStyle name="常规 3" xfId="8"/>
-    <cellStyle name="常规 5" xfId="6"/>
+    <cellStyle name="常规 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 2 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="常规 5" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="千位分隔 2" xfId="9"/>
-    <cellStyle name="千位分隔 2 2" xfId="7"/>
+    <cellStyle name="千位分隔 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="千位分隔 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1508,913 +1584,961 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AE34"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G24" sqref="G24:L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="2.42578125" style="20"/>
+    <col min="1" max="16384" width="2.375" style="20"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
     </row>
     <row r="3" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
     </row>
     <row r="4" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
     </row>
     <row r="6" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
     </row>
     <row r="8" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="41"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="47"/>
+      <c r="AD8" s="47"/>
+      <c r="AE8" s="48"/>
     </row>
     <row r="9" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="43"/>
-      <c r="AB9" s="43"/>
-      <c r="AC9" s="43"/>
-      <c r="AD9" s="43"/>
-      <c r="AE9" s="44"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="51"/>
     </row>
     <row r="10" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="43"/>
-      <c r="AC10" s="43"/>
-      <c r="AD10" s="43"/>
-      <c r="AE10" s="44"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="50"/>
+      <c r="AC10" s="50"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="51"/>
     </row>
     <row r="11" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="43"/>
-      <c r="AC11" s="43"/>
-      <c r="AD11" s="43"/>
-      <c r="AE11" s="44"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="50"/>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="51"/>
     </row>
     <row r="12" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="43"/>
-      <c r="AC12" s="43"/>
-      <c r="AD12" s="43"/>
-      <c r="AE12" s="44"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="50"/>
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="50"/>
+      <c r="AC12" s="50"/>
+      <c r="AD12" s="50"/>
+      <c r="AE12" s="51"/>
     </row>
     <row r="13" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="43"/>
-      <c r="AA13" s="43"/>
-      <c r="AB13" s="43"/>
-      <c r="AC13" s="43"/>
-      <c r="AD13" s="43"/>
-      <c r="AE13" s="44"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="50"/>
+      <c r="AC13" s="50"/>
+      <c r="AD13" s="50"/>
+      <c r="AE13" s="51"/>
     </row>
     <row r="14" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="43"/>
-      <c r="Z14" s="43"/>
-      <c r="AA14" s="43"/>
-      <c r="AB14" s="43"/>
-      <c r="AC14" s="43"/>
-      <c r="AD14" s="43"/>
-      <c r="AE14" s="44"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="50"/>
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="50"/>
+      <c r="AC14" s="50"/>
+      <c r="AD14" s="50"/>
+      <c r="AE14" s="51"/>
     </row>
     <row r="15" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="43"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="43"/>
-      <c r="Z15" s="43"/>
-      <c r="AA15" s="43"/>
-      <c r="AB15" s="43"/>
-      <c r="AC15" s="43"/>
-      <c r="AD15" s="43"/>
-      <c r="AE15" s="44"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15" s="50"/>
+      <c r="AD15" s="50"/>
+      <c r="AE15" s="51"/>
     </row>
     <row r="16" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="46"/>
-      <c r="AA16" s="46"/>
-      <c r="AB16" s="46"/>
-      <c r="AC16" s="46"/>
-      <c r="AD16" s="46"/>
-      <c r="AE16" s="47"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="53"/>
+      <c r="AD16" s="53"/>
+      <c r="AE16" s="54"/>
     </row>
     <row r="20" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38" t="s">
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38" t="s">
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38" t="s">
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="38"/>
-      <c r="AB20" s="38"/>
-      <c r="AC20" s="38"/>
-      <c r="AD20" s="38"/>
-      <c r="AE20" s="38"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="45"/>
+      <c r="AB20" s="45"/>
+      <c r="AC20" s="45"/>
+      <c r="AD20" s="45"/>
+      <c r="AE20" s="45"/>
     </row>
     <row r="21" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B21" s="48">
+      <c r="B21" s="36">
         <v>1</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="49">
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="39">
         <v>44901</v>
       </c>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="50" t="s">
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="48"/>
-      <c r="AA21" s="48"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="48"/>
-      <c r="AD21" s="48"/>
-      <c r="AE21" s="48"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="36"/>
     </row>
     <row r="22" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="51"/>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="51"/>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="51"/>
-      <c r="AB22" s="51"/>
-      <c r="AC22" s="51"/>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="51"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="41"/>
+      <c r="AB22" s="41"/>
+      <c r="AC22" s="41"/>
+      <c r="AD22" s="41"/>
+      <c r="AE22" s="41"/>
     </row>
     <row r="23" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="48"/>
-      <c r="X23" s="48"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="48"/>
-      <c r="AA23" s="48"/>
-      <c r="AB23" s="48"/>
-      <c r="AC23" s="48"/>
-      <c r="AD23" s="48"/>
-      <c r="AE23" s="48"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="36"/>
     </row>
     <row r="24" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="53"/>
-      <c r="Z24" s="53"/>
-      <c r="AA24" s="53"/>
-      <c r="AB24" s="53"/>
-      <c r="AC24" s="53"/>
-      <c r="AD24" s="53"/>
-      <c r="AE24" s="53"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="38"/>
+      <c r="AE24" s="38"/>
     </row>
     <row r="25" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="48"/>
-      <c r="X25" s="48"/>
-      <c r="Y25" s="48"/>
-      <c r="Z25" s="48"/>
-      <c r="AA25" s="48"/>
-      <c r="AB25" s="48"/>
-      <c r="AC25" s="48"/>
-      <c r="AD25" s="48"/>
-      <c r="AE25" s="48"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="36"/>
+      <c r="AC25" s="36"/>
+      <c r="AD25" s="36"/>
+      <c r="AE25" s="36"/>
     </row>
     <row r="26" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="48"/>
-      <c r="X26" s="48"/>
-      <c r="Y26" s="48"/>
-      <c r="Z26" s="48"/>
-      <c r="AA26" s="48"/>
-      <c r="AB26" s="48"/>
-      <c r="AC26" s="48"/>
-      <c r="AD26" s="48"/>
-      <c r="AE26" s="48"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="36"/>
+      <c r="AC26" s="36"/>
+      <c r="AD26" s="36"/>
+      <c r="AE26" s="36"/>
     </row>
     <row r="27" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="48"/>
-      <c r="X27" s="48"/>
-      <c r="Y27" s="48"/>
-      <c r="Z27" s="48"/>
-      <c r="AA27" s="48"/>
-      <c r="AB27" s="48"/>
-      <c r="AC27" s="48"/>
-      <c r="AD27" s="48"/>
-      <c r="AE27" s="48"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="36"/>
     </row>
     <row r="28" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="48"/>
-      <c r="X28" s="48"/>
-      <c r="Y28" s="48"/>
-      <c r="Z28" s="48"/>
-      <c r="AA28" s="48"/>
-      <c r="AB28" s="48"/>
-      <c r="AC28" s="48"/>
-      <c r="AD28" s="48"/>
-      <c r="AE28" s="48"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="36"/>
     </row>
     <row r="29" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="48"/>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="48"/>
-      <c r="Z29" s="48"/>
-      <c r="AA29" s="48"/>
-      <c r="AB29" s="48"/>
-      <c r="AC29" s="48"/>
-      <c r="AD29" s="48"/>
-      <c r="AE29" s="48"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="36"/>
+      <c r="AB29" s="36"/>
+      <c r="AC29" s="36"/>
+      <c r="AD29" s="36"/>
+      <c r="AE29" s="36"/>
     </row>
     <row r="30" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
-      <c r="W30" s="48"/>
-      <c r="X30" s="48"/>
-      <c r="Y30" s="48"/>
-      <c r="Z30" s="48"/>
-      <c r="AA30" s="48"/>
-      <c r="AB30" s="48"/>
-      <c r="AC30" s="48"/>
-      <c r="AD30" s="48"/>
-      <c r="AE30" s="48"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="36"/>
+      <c r="Z30" s="36"/>
+      <c r="AA30" s="36"/>
+      <c r="AB30" s="36"/>
+      <c r="AC30" s="36"/>
+      <c r="AD30" s="36"/>
+      <c r="AE30" s="36"/>
     </row>
     <row r="31" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="48"/>
-      <c r="X31" s="48"/>
-      <c r="Y31" s="48"/>
-      <c r="Z31" s="48"/>
-      <c r="AA31" s="48"/>
-      <c r="AB31" s="48"/>
-      <c r="AC31" s="48"/>
-      <c r="AD31" s="48"/>
-      <c r="AE31" s="48"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="36"/>
+      <c r="AA31" s="36"/>
+      <c r="AB31" s="36"/>
+      <c r="AC31" s="36"/>
+      <c r="AD31" s="36"/>
+      <c r="AE31" s="36"/>
     </row>
     <row r="32" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="48"/>
-      <c r="X32" s="48"/>
-      <c r="Y32" s="48"/>
-      <c r="Z32" s="48"/>
-      <c r="AA32" s="48"/>
-      <c r="AB32" s="48"/>
-      <c r="AC32" s="48"/>
-      <c r="AD32" s="48"/>
-      <c r="AE32" s="48"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="36"/>
+      <c r="Z32" s="36"/>
+      <c r="AA32" s="36"/>
+      <c r="AB32" s="36"/>
+      <c r="AC32" s="36"/>
+      <c r="AD32" s="36"/>
+      <c r="AE32" s="36"/>
     </row>
     <row r="33" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="48"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="48"/>
-      <c r="U33" s="48"/>
-      <c r="V33" s="48"/>
-      <c r="W33" s="48"/>
-      <c r="X33" s="48"/>
-      <c r="Y33" s="48"/>
-      <c r="Z33" s="48"/>
-      <c r="AA33" s="48"/>
-      <c r="AB33" s="48"/>
-      <c r="AC33" s="48"/>
-      <c r="AD33" s="48"/>
-      <c r="AE33" s="48"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="36"/>
+      <c r="Z33" s="36"/>
+      <c r="AA33" s="36"/>
+      <c r="AB33" s="36"/>
+      <c r="AC33" s="36"/>
+      <c r="AD33" s="36"/>
+      <c r="AE33" s="36"/>
     </row>
     <row r="34" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="48"/>
-      <c r="Q34" s="48"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="48"/>
-      <c r="T34" s="48"/>
-      <c r="U34" s="48"/>
-      <c r="V34" s="48"/>
-      <c r="W34" s="48"/>
-      <c r="X34" s="48"/>
-      <c r="Y34" s="48"/>
-      <c r="Z34" s="48"/>
-      <c r="AA34" s="48"/>
-      <c r="AB34" s="48"/>
-      <c r="AC34" s="48"/>
-      <c r="AD34" s="48"/>
-      <c r="AE34" s="48"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="36"/>
+      <c r="AA34" s="36"/>
+      <c r="AB34" s="36"/>
+      <c r="AC34" s="36"/>
+      <c r="AD34" s="36"/>
+      <c r="AE34" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="B4:AE4"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="M20:S20"/>
+    <mergeCell ref="T20:AE20"/>
+    <mergeCell ref="B8:AE16"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="M21:S21"/>
+    <mergeCell ref="T21:AE21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="M22:S22"/>
+    <mergeCell ref="T22:AE22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="M23:S23"/>
+    <mergeCell ref="T23:AE23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="M24:S24"/>
+    <mergeCell ref="T24:AE24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="M25:S25"/>
+    <mergeCell ref="T25:AE25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="M26:S26"/>
+    <mergeCell ref="T26:AE26"/>
+    <mergeCell ref="T27:AE27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="M28:S28"/>
+    <mergeCell ref="T28:AE28"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="M34:S34"/>
+    <mergeCell ref="T34:AE34"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="M31:S31"/>
+    <mergeCell ref="T31:AE31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="M32:S32"/>
+    <mergeCell ref="T32:AE32"/>
     <mergeCell ref="B2:AE3"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="G33:L33"/>
@@ -2431,54 +2555,6 @@
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="G27:L27"/>
     <mergeCell ref="M27:S27"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="G34:L34"/>
-    <mergeCell ref="M34:S34"/>
-    <mergeCell ref="T34:AE34"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="M31:S31"/>
-    <mergeCell ref="T31:AE31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="M32:S32"/>
-    <mergeCell ref="T32:AE32"/>
-    <mergeCell ref="T27:AE27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="M28:S28"/>
-    <mergeCell ref="T28:AE28"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="M25:S25"/>
-    <mergeCell ref="T25:AE25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="M26:S26"/>
-    <mergeCell ref="T26:AE26"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="M23:S23"/>
-    <mergeCell ref="T23:AE23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="M24:S24"/>
-    <mergeCell ref="T24:AE24"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="M21:S21"/>
-    <mergeCell ref="T21:AE21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="M22:S22"/>
-    <mergeCell ref="T22:AE22"/>
-    <mergeCell ref="B4:AE4"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="M20:S20"/>
-    <mergeCell ref="T20:AE20"/>
-    <mergeCell ref="B8:AE16"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2487,27 +2563,27 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.5703125" style="1" customWidth="1"/>
-    <col min="9" max="11" width="59.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.625" style="1" customWidth="1"/>
+    <col min="9" max="11" width="59.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2891,34 +2967,34 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N1" location="目录!A1" display="目录"/>
+    <hyperlink ref="N1" location="目录!A1" display="目录" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="59.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
+    <col min="9" max="11" width="59.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3004,15 +3080,15 @@
         <v>120</v>
       </c>
       <c r="I3" s="22" t="str">
-        <f t="shared" ref="I3:I18" si="0">A3&amp;" "&amp;B3&amp;"("&amp;C3&amp;") "&amp;E3&amp;" "&amp;F3&amp;","</f>
+        <f t="shared" ref="I3:I19" si="0">A3&amp;" "&amp;B3&amp;"("&amp;C3&amp;") "&amp;E3&amp;" "&amp;F3&amp;","</f>
         <v>id bigint(18) NOT NULL ,</v>
       </c>
       <c r="J3" s="1" t="str">
-        <f t="shared" ref="J3:J18" si="1">"{""field"":"""&amp;A3&amp;""",""name"":"""&amp;G3&amp;""",""dataType"":"""&amp;B3&amp;"""},"</f>
+        <f t="shared" ref="J3:J19" si="1">"{""field"":"""&amp;A3&amp;""",""name"":"""&amp;G3&amp;""",""dataType"":"""&amp;B3&amp;"""},"</f>
         <v>{"field":"id","name":"编号","dataType":"bigint"},</v>
       </c>
       <c r="K3" s="1" t="str">
-        <f t="shared" ref="K3:K18" si="2">"{""field"":"""&amp;A3&amp;""",""labelRegexp"":"""&amp;G3&amp;""",""excelRangeType"":""table""},"</f>
+        <f t="shared" ref="K3:K19" si="2">"{""field"":"""&amp;A3&amp;""",""labelRegexp"":"""&amp;G3&amp;""",""excelRangeType"":""table""},"</f>
         <v>{"field":"id","labelRegexp":"编号","excelRangeType":"table"},</v>
       </c>
       <c r="L3" s="1" t="str">
@@ -3053,7 +3129,7 @@
         <v>{"field":"locks","labelRegexp":"智能锁ID","excelRangeType":"table"},</v>
       </c>
       <c r="L4" s="1" t="str">
-        <f t="shared" ref="L4:L18" si="3">"{""field"":"""&amp;A4&amp;""",""width"":150},"</f>
+        <f t="shared" ref="L4:L19" si="3">"{""field"":"""&amp;A4&amp;""",""width"":150},"</f>
         <v>{"field":"locks","width":150},</v>
       </c>
     </row>
@@ -3091,487 +3167,510 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="66">
+        <v>20</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="66"/>
+      <c r="G6" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="H6" s="68"/>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="1:14" ht="16.5">
+      <c r="A7" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C7" s="3">
         <v>20</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="29" t="s">
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H7" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="I6" s="22" t="str">
+      <c r="I7" s="22" t="str">
         <f t="shared" si="0"/>
         <v>approver varchar(20) NOT NULL ,</v>
       </c>
-      <c r="J6" s="1" t="str">
+      <c r="J7" s="1" t="str">
         <f t="shared" si="1"/>
         <v>{"field":"approver","name":"审批人","dataType":"varchar"},</v>
       </c>
-      <c r="L6" s="1" t="str">
+      <c r="L7" s="1" t="str">
         <f t="shared" si="3"/>
         <v>{"field":"approver","width":150},</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16.5">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:14" ht="16.5">
+      <c r="A8" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C8" s="3">
         <v>0</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="29" t="s">
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="22" t="str">
+      <c r="H8" s="25"/>
+      <c r="I8" s="22" t="str">
         <f t="shared" si="0"/>
         <v>start_date datetime(0) NOT NULL ,</v>
       </c>
-      <c r="J7" s="1" t="str">
+      <c r="J8" s="1" t="str">
         <f t="shared" si="1"/>
         <v>{"field":"start_date","name":"开始日期","dataType":"datetime"},</v>
       </c>
-      <c r="L7" s="1" t="str">
+      <c r="L8" s="1" t="str">
         <f t="shared" si="3"/>
         <v>{"field":"start_date","width":150},</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16.5">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:14" ht="16.5">
+      <c r="A9" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C9" s="3">
         <v>0</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="29" t="s">
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="22" t="str">
+      <c r="H9" s="25"/>
+      <c r="I9" s="22" t="str">
         <f t="shared" si="0"/>
         <v>end_date datetime(0) NOT NULL ,</v>
       </c>
-      <c r="J8" s="1" t="str">
+      <c r="J9" s="1" t="str">
         <f t="shared" si="1"/>
         <v>{"field":"end_date","name":"截止日期","dataType":"datetime"},</v>
       </c>
-      <c r="L8" s="1" t="str">
+      <c r="L9" s="1" t="str">
         <f t="shared" si="3"/>
         <v>{"field":"end_date","width":150},</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16.5">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:14" ht="16.5">
+      <c r="A10" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C10" s="3">
         <v>0</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="29" t="s">
+      <c r="D10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="22" t="str">
+      <c r="H10" s="25"/>
+      <c r="I10" s="22" t="str">
         <f t="shared" si="0"/>
         <v>start_time time(0) NOT NULL ,</v>
       </c>
-      <c r="J9" s="1" t="str">
+      <c r="J10" s="1" t="str">
         <f t="shared" si="1"/>
         <v>{"field":"start_time","name":"开始时间","dataType":"time"},</v>
       </c>
-      <c r="L9" s="1" t="str">
+      <c r="L10" s="1" t="str">
         <f t="shared" si="3"/>
         <v>{"field":"start_time","width":150},</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16.5">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:14" ht="16.5">
+      <c r="A11" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C11" s="3">
         <v>0</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="29" t="s">
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="22" t="str">
+      <c r="H11" s="25"/>
+      <c r="I11" s="22" t="str">
         <f t="shared" si="0"/>
         <v>end_time time(0) NOT NULL ,</v>
       </c>
-      <c r="J10" s="1" t="str">
+      <c r="J11" s="1" t="str">
         <f t="shared" si="1"/>
         <v>{"field":"end_time","name":"截止时间","dataType":"time"},</v>
       </c>
-      <c r="L10" s="1" t="str">
+      <c r="L11" s="1" t="str">
         <f t="shared" si="3"/>
         <v>{"field":"end_time","width":150},</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16.5">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:14" ht="16.5">
+      <c r="A12" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C12" s="3">
         <v>255</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="29" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="22" t="str">
+      <c r="H12" s="25"/>
+      <c r="I12" s="22" t="str">
         <f t="shared" si="0"/>
         <v>description varchar(255) NULL ,</v>
       </c>
-      <c r="J11" s="1" t="str">
+      <c r="J12" s="1" t="str">
         <f t="shared" si="1"/>
         <v>{"field":"description","name":"事由说明","dataType":"varchar"},</v>
       </c>
-      <c r="L11" s="1" t="str">
+      <c r="L12" s="1" t="str">
         <f t="shared" si="3"/>
         <v>{"field":"description","width":150},</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="66">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:14" ht="66">
+      <c r="A13" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C13" s="3">
         <v>2</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="D13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G13" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H13" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="I12" s="22" t="str">
+      <c r="I13" s="22" t="str">
         <f t="shared" si="0"/>
         <v>status varchar(2) NOT NULL DEFAULT '0',</v>
       </c>
-      <c r="J12" s="1" t="str">
+      <c r="J13" s="1" t="str">
         <f t="shared" si="1"/>
         <v>{"field":"status","name":"状态","dataType":"varchar"},</v>
       </c>
-      <c r="L12" s="1" t="str">
+      <c r="L13" s="1" t="str">
         <f t="shared" si="3"/>
         <v>{"field":"status","width":150},</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16.5">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:14" ht="16.5">
+      <c r="A14" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C14" s="3">
         <v>255</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="29" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="22" t="str">
+      <c r="H14" s="25"/>
+      <c r="I14" s="22" t="str">
         <f t="shared" si="0"/>
         <v>approval_comments varchar(255) NULL ,</v>
       </c>
-      <c r="J13" s="1" t="str">
+      <c r="J14" s="1" t="str">
         <f t="shared" si="1"/>
         <v>{"field":"approval_comments","name":"审批意见","dataType":"varchar"},</v>
       </c>
-      <c r="L13" s="1" t="str">
+      <c r="L14" s="1" t="str">
         <f t="shared" si="3"/>
         <v>{"field":"approval_comments","width":150},</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16.5">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:14" ht="16.5">
+      <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C15" s="3">
         <v>0</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="11" t="s">
+      <c r="D15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H15" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="22" t="str">
+      <c r="I15" s="22" t="str">
         <f t="shared" si="0"/>
         <v>create_time datetime(0) NOT NULL ,</v>
       </c>
-      <c r="J14" s="1" t="str">
+      <c r="J15" s="1" t="str">
         <f t="shared" si="1"/>
         <v>{"field":"create_time","name":"记录创建时间","dataType":"datetime"},</v>
       </c>
-      <c r="K14" s="1" t="str">
+      <c r="K15" s="1" t="str">
         <f t="shared" si="2"/>
         <v>{"field":"create_time","labelRegexp":"记录创建时间","excelRangeType":"table"},</v>
       </c>
-      <c r="L14" s="1" t="str">
+      <c r="L15" s="1" t="str">
         <f t="shared" si="3"/>
         <v>{"field":"create_time","width":150},</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="16.5">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:14" ht="16.5">
+      <c r="A16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B16" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C16" s="21">
         <v>25</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="11" t="s">
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H16" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="22" t="str">
+      <c r="I16" s="22" t="str">
         <f t="shared" si="0"/>
         <v>create_user varchar(25) NOT NULL ,</v>
       </c>
-      <c r="J15" s="1" t="str">
+      <c r="J16" s="1" t="str">
         <f t="shared" si="1"/>
         <v>{"field":"create_user","name":"记录创建人","dataType":"varchar"},</v>
       </c>
-      <c r="K15" s="1" t="str">
+      <c r="K16" s="1" t="str">
         <f t="shared" si="2"/>
         <v>{"field":"create_user","labelRegexp":"记录创建人","excelRangeType":"table"},</v>
       </c>
-      <c r="L15" s="1" t="str">
+      <c r="L16" s="1" t="str">
         <f t="shared" si="3"/>
         <v>{"field":"create_user","width":150},</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16.5">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:12" ht="16.5">
+      <c r="A17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C17" s="3">
         <v>0</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="11" t="s">
+      <c r="D17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="I16" s="22" t="str">
+      <c r="I17" s="22" t="str">
         <f t="shared" si="0"/>
         <v>update_time datetime(0) NOT NULL ,</v>
       </c>
-      <c r="J16" s="1" t="str">
+      <c r="J17" s="1" t="str">
         <f t="shared" si="1"/>
         <v>{"field":"update_time","name":"记录更新时间","dataType":"datetime"},</v>
       </c>
-      <c r="K16" s="1" t="str">
+      <c r="K17" s="1" t="str">
         <f t="shared" si="2"/>
         <v>{"field":"update_time","labelRegexp":"记录更新时间","excelRangeType":"table"},</v>
       </c>
-      <c r="L16" s="1" t="str">
+      <c r="L17" s="1" t="str">
         <f t="shared" si="3"/>
         <v>{"field":"update_time","width":150},</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16.5">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:12" ht="16.5">
+      <c r="A18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B18" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C18" s="21">
         <v>25</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="11" t="s">
+      <c r="D18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H18" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="22" t="str">
+      <c r="I18" s="22" t="str">
         <f t="shared" si="0"/>
         <v>update_user varchar(25) NOT NULL ,</v>
       </c>
-      <c r="J17" s="1" t="str">
+      <c r="J18" s="1" t="str">
         <f t="shared" si="1"/>
         <v>{"field":"update_user","name":"记录更新人","dataType":"varchar"},</v>
       </c>
-      <c r="K17" s="1" t="str">
+      <c r="K18" s="1" t="str">
         <f t="shared" si="2"/>
         <v>{"field":"update_user","labelRegexp":"记录更新人","excelRangeType":"table"},</v>
       </c>
-      <c r="L17" s="1" t="str">
+      <c r="L18" s="1" t="str">
         <f t="shared" si="3"/>
         <v>{"field":"update_user","width":150},</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16.5">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:12" ht="16.5">
+      <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C19" s="3">
         <v>11</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="D19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I18" s="22" t="str">
+      <c r="I19" s="22" t="str">
         <f t="shared" si="0"/>
         <v>version int(11) NOT NULL DEFAULT 0,</v>
       </c>
-      <c r="J18" s="1" t="str">
+      <c r="J19" s="1" t="str">
         <f t="shared" si="1"/>
         <v>{"field":"version","name":"数据版本号","dataType":"int"},</v>
       </c>
-      <c r="K18" s="1" t="str">
+      <c r="K19" s="1" t="str">
         <f t="shared" si="2"/>
         <v>{"field":"version","labelRegexp":"数据版本号","excelRangeType":"table"},</v>
       </c>
-      <c r="L18" s="1" t="str">
+      <c r="L19" s="1" t="str">
         <f t="shared" si="3"/>
         <v>{"field":"version","width":150},</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="I19" s="1" t="str">
+    <row r="20" spans="1:12">
+      <c r="I20" s="1" t="str">
         <f>"PRIMARY KEY (`id`) USING BTREE)"</f>
         <v>PRIMARY KEY (`id`) USING BTREE)</v>
       </c>
@@ -3582,34 +3681,34 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N1" location="目录!A1" display="目录"/>
+    <hyperlink ref="N1" location="目录!A1" display="目录" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3:L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="59.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
+    <col min="9" max="11" width="59.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4001,34 +4100,34 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N1" location="目录!A1" display="目录"/>
+    <hyperlink ref="N1" location="目录!A1" display="目录" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8:L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="59.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
+    <col min="9" max="11" width="59.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4114,15 +4213,15 @@
         <v>99</v>
       </c>
       <c r="I3" s="22" t="str">
-        <f t="shared" ref="I3:I13" si="0">A3&amp;" "&amp;B3&amp;"("&amp;C3&amp;") "&amp;E3&amp;" "&amp;F3&amp;","</f>
+        <f t="shared" ref="I3:I15" si="0">A3&amp;" "&amp;B3&amp;"("&amp;C3&amp;") "&amp;E3&amp;" "&amp;F3&amp;","</f>
         <v>id varchar(20) NOT NULL ,</v>
       </c>
       <c r="J3" s="1" t="str">
-        <f t="shared" ref="J3:J13" si="1">"{""field"":"""&amp;A3&amp;""",""name"":"""&amp;G3&amp;""",""dataType"":"""&amp;B3&amp;"""},"</f>
+        <f t="shared" ref="J3:J15" si="1">"{""field"":"""&amp;A3&amp;""",""name"":"""&amp;G3&amp;""",""dataType"":"""&amp;B3&amp;"""},"</f>
         <v>{"field":"id","name":"编号","dataType":"varchar"},</v>
       </c>
       <c r="K3" s="1" t="str">
-        <f t="shared" ref="K3:K13" si="2">"{""field"":"""&amp;A3&amp;""",""labelRegexp"":"""&amp;G3&amp;""",""excelRangeType"":""table""},"</f>
+        <f t="shared" ref="K3:K15" si="2">"{""field"":"""&amp;A3&amp;""",""labelRegexp"":"""&amp;G3&amp;""",""excelRangeType"":""table""},"</f>
         <v>{"field":"id","labelRegexp":"编号","excelRangeType":"table"},</v>
       </c>
       <c r="L3" s="1" t="str">
@@ -4164,7 +4263,7 @@
         <v>{"field":"name","labelRegexp":"名称","excelRangeType":"table"},</v>
       </c>
       <c r="L4" s="1" t="str">
-        <f t="shared" ref="L4:L13" si="3">"{""field"":"""&amp;A4&amp;""",""width"":150},"</f>
+        <f t="shared" ref="L4:L15" si="3">"{""field"":"""&amp;A4&amp;""",""width"":150},"</f>
         <v>{"field":"name","width":150},</v>
       </c>
     </row>
@@ -4282,242 +4381,310 @@
     </row>
     <row r="8" spans="1:14" ht="16.5">
       <c r="A8" s="3" t="s">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="3">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="29" t="s">
-        <v>68</v>
+      <c r="G8" s="65" t="s">
+        <v>208</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>remark varchar(255) NULL ,</v>
+        <v>master_hub varchar(20) NOT NULL ,</v>
       </c>
       <c r="J8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"field":"remark","name":"备注","dataType":"varchar"},</v>
+        <v>{"field":"master_hub","name":"主网关","dataType":"varchar"},</v>
       </c>
       <c r="L8" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>{"field":"remark","width":150},</v>
+        <v>{"field":"master_hub","width":150},</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5">
       <c r="A9" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="65" t="s">
+        <v>209</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>slaver_hub varchar(20) NOT NULL ,</v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{"field":"slaver_hub","name":"备份网关","dataType":"varchar"},</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{"field":"slaver_hub","width":150},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16.5">
+      <c r="A10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3">
+        <v>255</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>remark varchar(255) NULL ,</v>
+      </c>
+      <c r="J10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{"field":"remark","name":"备注","dataType":"varchar"},</v>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{"field":"remark","width":150},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="16.5">
+      <c r="A11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C11" s="3">
         <v>0</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="11" t="s">
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H11" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="22" t="str">
+      <c r="I11" s="22" t="str">
         <f t="shared" si="0"/>
         <v>create_time datetime(0) NOT NULL ,</v>
       </c>
-      <c r="J9" s="1" t="str">
+      <c r="J11" s="1" t="str">
         <f t="shared" si="1"/>
         <v>{"field":"create_time","name":"记录创建时间","dataType":"datetime"},</v>
       </c>
-      <c r="K9" s="1" t="str">
+      <c r="K11" s="1" t="str">
         <f t="shared" si="2"/>
         <v>{"field":"create_time","labelRegexp":"记录创建时间","excelRangeType":"table"},</v>
       </c>
-      <c r="L9" s="1" t="str">
+      <c r="L11" s="1" t="str">
         <f t="shared" si="3"/>
         <v>{"field":"create_time","width":150},</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16.5">
-      <c r="A10" s="3" t="s">
+    <row r="12" spans="1:14" ht="16.5">
+      <c r="A12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B12" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C12" s="21">
         <v>25</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="11" t="s">
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H12" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="22" t="str">
+      <c r="I12" s="22" t="str">
         <f t="shared" si="0"/>
         <v>create_user varchar(25) NOT NULL ,</v>
       </c>
-      <c r="J10" s="1" t="str">
+      <c r="J12" s="1" t="str">
         <f t="shared" si="1"/>
         <v>{"field":"create_user","name":"记录创建人","dataType":"varchar"},</v>
       </c>
-      <c r="K10" s="1" t="str">
+      <c r="K12" s="1" t="str">
         <f t="shared" si="2"/>
         <v>{"field":"create_user","labelRegexp":"记录创建人","excelRangeType":"table"},</v>
       </c>
-      <c r="L10" s="1" t="str">
+      <c r="L12" s="1" t="str">
         <f t="shared" si="3"/>
         <v>{"field":"create_user","width":150},</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16.5">
-      <c r="A11" s="3" t="s">
+    <row r="13" spans="1:14" ht="16.5">
+      <c r="A13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C13" s="3">
         <v>0</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="11" t="s">
+      <c r="D13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="22" t="str">
+      <c r="I13" s="22" t="str">
         <f t="shared" si="0"/>
         <v>update_time datetime(0) NOT NULL ,</v>
       </c>
-      <c r="J11" s="1" t="str">
+      <c r="J13" s="1" t="str">
         <f t="shared" si="1"/>
         <v>{"field":"update_time","name":"记录更新时间","dataType":"datetime"},</v>
       </c>
-      <c r="K11" s="1" t="str">
+      <c r="K13" s="1" t="str">
         <f t="shared" si="2"/>
         <v>{"field":"update_time","labelRegexp":"记录更新时间","excelRangeType":"table"},</v>
       </c>
-      <c r="L11" s="1" t="str">
+      <c r="L13" s="1" t="str">
         <f t="shared" si="3"/>
         <v>{"field":"update_time","width":150},</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16.5">
-      <c r="A12" s="3" t="s">
+    <row r="14" spans="1:14" ht="16.5">
+      <c r="A14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B14" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C14" s="21">
         <v>25</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="11" t="s">
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="22" t="str">
+      <c r="I14" s="22" t="str">
         <f t="shared" si="0"/>
         <v>update_user varchar(25) NOT NULL ,</v>
       </c>
-      <c r="J12" s="1" t="str">
+      <c r="J14" s="1" t="str">
         <f t="shared" si="1"/>
         <v>{"field":"update_user","name":"记录更新人","dataType":"varchar"},</v>
       </c>
-      <c r="K12" s="1" t="str">
+      <c r="K14" s="1" t="str">
         <f t="shared" si="2"/>
         <v>{"field":"update_user","labelRegexp":"记录更新人","excelRangeType":"table"},</v>
       </c>
-      <c r="L12" s="1" t="str">
+      <c r="L14" s="1" t="str">
         <f t="shared" si="3"/>
         <v>{"field":"update_user","width":150},</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16.5">
-      <c r="A13" s="3" t="s">
+    <row r="15" spans="1:14" ht="16.5">
+      <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C15" s="3">
         <v>11</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="D15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="22" t="str">
+      <c r="I15" s="22" t="str">
         <f t="shared" si="0"/>
         <v>version int(11) NOT NULL DEFAULT 0,</v>
       </c>
-      <c r="J13" s="1" t="str">
+      <c r="J15" s="1" t="str">
         <f t="shared" si="1"/>
         <v>{"field":"version","name":"数据版本号","dataType":"int"},</v>
       </c>
-      <c r="K13" s="1" t="str">
+      <c r="K15" s="1" t="str">
         <f t="shared" si="2"/>
         <v>{"field":"version","labelRegexp":"数据版本号","excelRangeType":"table"},</v>
       </c>
-      <c r="L13" s="1" t="str">
+      <c r="L15" s="1" t="str">
         <f t="shared" si="3"/>
         <v>{"field":"version","width":150},</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="I14" s="1" t="str">
+    <row r="16" spans="1:14">
+      <c r="I16" s="1" t="str">
         <f>"PRIMARY KEY (`id`) USING BTREE)"</f>
         <v>PRIMARY KEY (`id`) USING BTREE)</v>
       </c>
@@ -4528,34 +4695,34 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N1" location="目录!A1" display="目录"/>
+    <hyperlink ref="N1" location="目录!A1" display="目录" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FAE0BB-533D-4FE3-953E-68204085646F}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="59.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
+    <col min="9" max="11" width="59.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4564,13 +4731,13 @@
         <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="57" t="s">
-        <v>114</v>
+        <v>201</v>
       </c>
       <c r="E1" s="57"/>
       <c r="F1" s="2" t="s">
@@ -4582,7 +4749,7 @@
       </c>
       <c r="I1" s="1" t="str">
         <f>"create table "&amp;B1&amp;" ("</f>
-        <v>create table sl_key_controller (</v>
+        <v>create table sl_lock_hub (</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>8</v>
@@ -4638,7 +4805,7 @@
         <v>70</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>116</v>
+        <v>202</v>
       </c>
       <c r="I3" s="22" t="str">
         <f t="shared" ref="I3:I10" si="0">A3&amp;" "&amp;B3&amp;"("&amp;C3&amp;") "&amp;E3&amp;" "&amp;F3&amp;","</f>
@@ -4659,7 +4826,7 @@
     </row>
     <row r="4" spans="1:14" ht="16.5">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>203</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>43</v>
@@ -4674,25 +4841,442 @@
         <v>52</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="29" t="s">
-        <v>69</v>
+      <c r="G4" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I4" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>ip varchar(20) NOT NULL ,</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{"field":"ip","name":"网关IP","dataType":"varchar"},</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{"field":"ip","labelRegexp":"网关IP","excelRangeType":"table"},</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f t="shared" ref="L4:L10" si="3">"{""field"":"""&amp;A4&amp;""",""width"":150},"</f>
+        <v>{"field":"ip","width":150},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16.5">
+      <c r="A5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3">
+        <v>255</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>remark varchar(255) NULL ,</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{"field":"remark","name":"备注","dataType":"varchar"},</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{"field":"remark","width":150},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="16.5">
+      <c r="A6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>create_time datetime(0) NOT NULL ,</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{"field":"create_time","name":"记录创建时间","dataType":"datetime"},</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{"field":"create_time","labelRegexp":"记录创建时间","excelRangeType":"table"},</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{"field":"create_time","width":150},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="16.5">
+      <c r="A7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="21">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>create_user varchar(25) NOT NULL ,</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{"field":"create_user","name":"记录创建人","dataType":"varchar"},</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{"field":"create_user","labelRegexp":"记录创建人","excelRangeType":"table"},</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{"field":"create_user","width":150},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="16.5">
+      <c r="A8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>update_time datetime(0) NOT NULL ,</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{"field":"update_time","name":"记录更新时间","dataType":"datetime"},</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{"field":"update_time","labelRegexp":"记录更新时间","excelRangeType":"table"},</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{"field":"update_time","width":150},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="16.5">
+      <c r="A9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="21">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>update_user varchar(25) NOT NULL ,</v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{"field":"update_user","name":"记录更新人","dataType":"varchar"},</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{"field":"update_user","labelRegexp":"记录更新人","excelRangeType":"table"},</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{"field":"update_user","width":150},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16.5">
+      <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="3">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>version int(11) NOT NULL DEFAULT 0,</v>
+      </c>
+      <c r="J10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{"field":"version","name":"数据版本号","dataType":"int"},</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{"field":"version","labelRegexp":"数据版本号","excelRangeType":"table"},</v>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{"field":"version","width":150},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="I11" s="1" t="str">
+        <f>"PRIMARY KEY (`id`) USING BTREE)"</f>
+        <v>PRIMARY KEY (`id`) USING BTREE)</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="N1" location="目录!A1" display="目录" xr:uid="{F0925762-4732-44EE-82A3-18A09C43695D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="18.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="59.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="16.5">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="57"/>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="str">
+        <f>"create table "&amp;B1&amp;" ("</f>
+        <v>create table sl_key_controller (</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+    </row>
+    <row r="3" spans="1:14" ht="16.5">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="3">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" s="22" t="str">
+        <f t="shared" ref="I3:I10" si="0">A3&amp;" "&amp;B3&amp;"("&amp;C3&amp;") "&amp;E3&amp;" "&amp;F3&amp;","</f>
+        <v>id varchar(20) NOT NULL ,</v>
+      </c>
+      <c r="J3" s="1" t="str">
+        <f t="shared" ref="J3:J10" si="1">"{""field"":"""&amp;A3&amp;""",""name"":"""&amp;G3&amp;""",""dataType"":"""&amp;B3&amp;"""},"</f>
+        <v>{"field":"id","name":"编号","dataType":"varchar"},</v>
+      </c>
+      <c r="K3" s="1" t="str">
+        <f t="shared" ref="K3:K10" si="2">"{""field"":"""&amp;A3&amp;""",""labelRegexp"":"""&amp;G3&amp;""",""excelRangeType"":""table""},"</f>
+        <v>{"field":"id","labelRegexp":"编号","excelRangeType":"table"},</v>
+      </c>
+      <c r="L3" s="1" t="str">
+        <f>"{""field"":"""&amp;A3&amp;""",""width"":150},"</f>
+        <v>{"field":"id","width":150},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16.5">
+      <c r="A4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="65" t="s">
+        <v>211</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>name varchar(20) NOT NULL ,</v>
+        <v>ip varchar(20) NOT NULL ,</v>
       </c>
       <c r="J4" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"field":"name","name":"名称","dataType":"varchar"},</v>
+        <v>{"field":"ip","name":"IP地址","dataType":"varchar"},</v>
       </c>
       <c r="K4" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>{"field":"name","labelRegexp":"名称","excelRangeType":"table"},</v>
+        <v>{"field":"ip","labelRegexp":"IP地址","excelRangeType":"table"},</v>
       </c>
       <c r="L4" s="1" t="str">
         <f t="shared" ref="L4:L10" si="3">"{""field"":"""&amp;A4&amp;""",""width"":150},"</f>
-        <v>{"field":"name","width":150},</v>
+        <v>{"field":"ip","width":150},</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.5">
@@ -4943,34 +5527,34 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N1" location="目录!A1" display="目录"/>
+    <hyperlink ref="N1" location="目录!A1" display="目录" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L10"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="59.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
+    <col min="9" max="11" width="59.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5056,15 +5640,15 @@
         <v>111</v>
       </c>
       <c r="I3" s="22" t="str">
-        <f t="shared" ref="I3:I10" si="0">A3&amp;" "&amp;B3&amp;"("&amp;C3&amp;") "&amp;E3&amp;" "&amp;F3&amp;","</f>
+        <f t="shared" ref="I3:I11" si="0">A3&amp;" "&amp;B3&amp;"("&amp;C3&amp;") "&amp;E3&amp;" "&amp;F3&amp;","</f>
         <v>id varchar(20) NOT NULL ,</v>
       </c>
       <c r="J3" s="1" t="str">
-        <f t="shared" ref="J3:J10" si="1">"{""field"":"""&amp;A3&amp;""",""name"":"""&amp;G3&amp;""",""dataType"":"""&amp;B3&amp;"""},"</f>
+        <f t="shared" ref="J3:J11" si="1">"{""field"":"""&amp;A3&amp;""",""name"":"""&amp;G3&amp;""",""dataType"":"""&amp;B3&amp;"""},"</f>
         <v>{"field":"id","name":"编号","dataType":"varchar"},</v>
       </c>
       <c r="K3" s="1" t="str">
-        <f t="shared" ref="K3:K10" si="2">"{""field"":"""&amp;A3&amp;""",""labelRegexp"":"""&amp;G3&amp;""",""excelRangeType"":""table""},"</f>
+        <f t="shared" ref="K3:K11" si="2">"{""field"":"""&amp;A3&amp;""",""labelRegexp"":"""&amp;G3&amp;""",""excelRangeType"":""table""},"</f>
         <v>{"field":"id","labelRegexp":"编号","excelRangeType":"table"},</v>
       </c>
       <c r="L3" s="1" t="str">
@@ -5106,248 +5690,278 @@
         <v>{"field":"name","labelRegexp":"名称","excelRangeType":"table"},</v>
       </c>
       <c r="L4" s="1" t="str">
-        <f t="shared" ref="L4:L10" si="3">"{""field"":"""&amp;A4&amp;""",""width"":150},"</f>
+        <f t="shared" ref="L4:L11" si="3">"{""field"":"""&amp;A4&amp;""",""width"":150},"</f>
         <v>{"field":"name","width":150},</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.5">
       <c r="A5" s="3" t="s">
-        <v>62</v>
+        <v>212</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="3">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>controller varchar(20) NOT NULL ,</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{"field":"controller","name":"管理机","dataType":"varchar"},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="16.5">
+      <c r="A6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="3">
         <v>255</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="29" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="22" t="str">
+      <c r="H6" s="25"/>
+      <c r="I6" s="22" t="str">
         <f t="shared" si="0"/>
         <v>remark varchar(255) NULL ,</v>
       </c>
-      <c r="J5" s="1" t="str">
+      <c r="J6" s="1" t="str">
         <f t="shared" si="1"/>
         <v>{"field":"remark","name":"备注","dataType":"varchar"},</v>
       </c>
-      <c r="L5" s="1" t="str">
+      <c r="L6" s="1" t="str">
         <f t="shared" si="3"/>
         <v>{"field":"remark","width":150},</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16.5">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:14" ht="16.5">
+      <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C7" s="3">
         <v>0</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="11" t="s">
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="22" t="str">
+      <c r="I7" s="22" t="str">
         <f t="shared" si="0"/>
         <v>create_time datetime(0) NOT NULL ,</v>
       </c>
-      <c r="J6" s="1" t="str">
+      <c r="J7" s="1" t="str">
         <f t="shared" si="1"/>
         <v>{"field":"create_time","name":"记录创建时间","dataType":"datetime"},</v>
       </c>
-      <c r="K6" s="1" t="str">
+      <c r="K7" s="1" t="str">
         <f t="shared" si="2"/>
         <v>{"field":"create_time","labelRegexp":"记录创建时间","excelRangeType":"table"},</v>
       </c>
-      <c r="L6" s="1" t="str">
+      <c r="L7" s="1" t="str">
         <f t="shared" si="3"/>
         <v>{"field":"create_time","width":150},</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16.5">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:14" ht="16.5">
+      <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B8" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C8" s="21">
         <v>25</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="11" t="s">
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="22" t="str">
+      <c r="I8" s="22" t="str">
         <f t="shared" si="0"/>
         <v>create_user varchar(25) NOT NULL ,</v>
       </c>
-      <c r="J7" s="1" t="str">
+      <c r="J8" s="1" t="str">
         <f t="shared" si="1"/>
         <v>{"field":"create_user","name":"记录创建人","dataType":"varchar"},</v>
       </c>
-      <c r="K7" s="1" t="str">
+      <c r="K8" s="1" t="str">
         <f t="shared" si="2"/>
         <v>{"field":"create_user","labelRegexp":"记录创建人","excelRangeType":"table"},</v>
       </c>
-      <c r="L7" s="1" t="str">
+      <c r="L8" s="1" t="str">
         <f t="shared" si="3"/>
         <v>{"field":"create_user","width":150},</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16.5">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:14" ht="16.5">
+      <c r="A9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C9" s="3">
         <v>0</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="11" t="s">
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="22" t="str">
+      <c r="I9" s="22" t="str">
         <f t="shared" si="0"/>
         <v>update_time datetime(0) NOT NULL ,</v>
       </c>
-      <c r="J8" s="1" t="str">
+      <c r="J9" s="1" t="str">
         <f t="shared" si="1"/>
         <v>{"field":"update_time","name":"记录更新时间","dataType":"datetime"},</v>
       </c>
-      <c r="K8" s="1" t="str">
+      <c r="K9" s="1" t="str">
         <f t="shared" si="2"/>
         <v>{"field":"update_time","labelRegexp":"记录更新时间","excelRangeType":"table"},</v>
       </c>
-      <c r="L8" s="1" t="str">
+      <c r="L9" s="1" t="str">
         <f t="shared" si="3"/>
         <v>{"field":"update_time","width":150},</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16.5">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:14" ht="16.5">
+      <c r="A10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B10" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C10" s="21">
         <v>25</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="11" t="s">
+      <c r="D10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="22" t="str">
+      <c r="I10" s="22" t="str">
         <f t="shared" si="0"/>
         <v>update_user varchar(25) NOT NULL ,</v>
       </c>
-      <c r="J9" s="1" t="str">
+      <c r="J10" s="1" t="str">
         <f t="shared" si="1"/>
         <v>{"field":"update_user","name":"记录更新人","dataType":"varchar"},</v>
       </c>
-      <c r="K9" s="1" t="str">
+      <c r="K10" s="1" t="str">
         <f t="shared" si="2"/>
         <v>{"field":"update_user","labelRegexp":"记录更新人","excelRangeType":"table"},</v>
       </c>
-      <c r="L9" s="1" t="str">
+      <c r="L10" s="1" t="str">
         <f t="shared" si="3"/>
         <v>{"field":"update_user","width":150},</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16.5">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:14" ht="16.5">
+      <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C11" s="3">
         <v>11</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="22" t="str">
+      <c r="I11" s="22" t="str">
         <f t="shared" si="0"/>
         <v>version int(11) NOT NULL DEFAULT 0,</v>
       </c>
-      <c r="J10" s="1" t="str">
+      <c r="J11" s="1" t="str">
         <f t="shared" si="1"/>
         <v>{"field":"version","name":"数据版本号","dataType":"int"},</v>
       </c>
-      <c r="K10" s="1" t="str">
+      <c r="K11" s="1" t="str">
         <f t="shared" si="2"/>
         <v>{"field":"version","labelRegexp":"数据版本号","excelRangeType":"table"},</v>
       </c>
-      <c r="L10" s="1" t="str">
+      <c r="L11" s="1" t="str">
         <f t="shared" si="3"/>
         <v>{"field":"version","width":150},</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="I11" s="1" t="str">
+    <row r="12" spans="1:14">
+      <c r="I12" s="1" t="str">
         <f>"PRIMARY KEY (`id`) USING BTREE)"</f>
         <v>PRIMARY KEY (`id`) USING BTREE)</v>
       </c>
@@ -5358,34 +5972,34 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N1" location="目录!A1" display="目录"/>
+    <hyperlink ref="N1" location="目录!A1" display="目录" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="L3" sqref="L3:L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="59.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
+    <col min="9" max="11" width="59.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5737,34 +6351,34 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N1" location="目录!A1" display="目录"/>
+    <hyperlink ref="N1" location="目录!A1" display="目录" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:AE9"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="2.42578125" style="12"/>
-    <col min="4" max="4" width="13.7109375" style="12" customWidth="1"/>
-    <col min="5" max="6" width="2.42578125" style="12" customWidth="1"/>
+    <col min="1" max="3" width="2.375" style="12"/>
+    <col min="4" max="4" width="13.75" style="12" customWidth="1"/>
+    <col min="5" max="6" width="2.375" style="12" customWidth="1"/>
     <col min="7" max="7" width="4" style="12" customWidth="1"/>
-    <col min="8" max="11" width="2.42578125" style="12" customWidth="1"/>
-    <col min="12" max="12" width="3.42578125" style="12" customWidth="1"/>
-    <col min="13" max="13" width="3.28515625" style="12" customWidth="1"/>
-    <col min="14" max="16" width="3.42578125" style="12" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" style="12" customWidth="1"/>
-    <col min="18" max="18" width="3.140625" style="12" customWidth="1"/>
-    <col min="19" max="19" width="2.42578125" style="12" customWidth="1"/>
-    <col min="20" max="16384" width="2.42578125" style="12"/>
+    <col min="8" max="11" width="2.375" style="12" customWidth="1"/>
+    <col min="12" max="12" width="3.375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="3.25" style="12" customWidth="1"/>
+    <col min="14" max="16" width="3.375" style="12" customWidth="1"/>
+    <col min="17" max="17" width="7.75" style="12" customWidth="1"/>
+    <col min="18" max="18" width="3.125" style="12" customWidth="1"/>
+    <col min="19" max="19" width="2.375" style="12" customWidth="1"/>
+    <col min="20" max="16384" width="2.375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="14.25" customHeight="1">
@@ -5838,28 +6452,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="59.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
+    <col min="9" max="11" width="59.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6285,324 +6899,36 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N1" location="目录!A1" display="目录"/>
+    <hyperlink ref="N1" location="目录!A1" display="目录" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AN34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="18.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="16.5">
-      <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="3">
-        <v>1</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="16.5">
-      <c r="A3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="16.5">
-      <c r="A4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="3">
-        <v>32</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="16.5">
-      <c r="A6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="3">
-        <v>32</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.5">
-      <c r="A8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="16.5">
-      <c r="A9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" ht="16.5">
-      <c r="A13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="3"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-  </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="J1" location="目录!A1" display="目录"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="59" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN34"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.42578125" defaultRowHeight="14.25" customHeight="1"/>
-  <cols>
-    <col min="1" max="4" width="2.42578125" style="18"/>
-    <col min="5" max="5" width="31.42578125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" style="18" customWidth="1"/>
+    <col min="1" max="4" width="2.375" style="18"/>
+    <col min="5" max="5" width="31.375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="29.75" style="18" customWidth="1"/>
     <col min="7" max="7" width="15" style="18" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="18" customWidth="1"/>
     <col min="9" max="9" width="14" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="18" customWidth="1"/>
-    <col min="11" max="27" width="2.42578125" style="18"/>
-    <col min="28" max="28" width="2.42578125" style="18" hidden="1" customWidth="1"/>
-    <col min="29" max="37" width="2.42578125" style="18"/>
-    <col min="38" max="38" width="16.42578125" style="18" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="12.5703125" style="18" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="24.42578125" style="18" hidden="1" customWidth="1"/>
-    <col min="41" max="16384" width="2.42578125" style="18"/>
+    <col min="10" max="10" width="19.25" style="18" customWidth="1"/>
+    <col min="11" max="27" width="2.375" style="18"/>
+    <col min="28" max="28" width="2.375" style="18" hidden="1" customWidth="1"/>
+    <col min="29" max="37" width="2.375" style="18"/>
+    <col min="38" max="38" width="16.375" style="18" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="12.625" style="18" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="24.375" style="18" hidden="1" customWidth="1"/>
+    <col min="41" max="16384" width="2.375" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1">
@@ -6882,8 +7208,13 @@
       <c r="I18" s="28"/>
     </row>
     <row r="19" spans="5:9" ht="14.25" customHeight="1">
-      <c r="E19" s="23"/>
-      <c r="F19" s="19"/>
+      <c r="E19" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="F19" s="27" t="str">
+        <f>sl_lock_hub!D1</f>
+        <v>智能锁网关信息表</v>
+      </c>
       <c r="G19" s="19"/>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
@@ -6990,49 +7321,338 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E4" location="sl_person!A1" display="sl_person"/>
-    <hyperlink ref="E5" location="sl_room!A1" display="sl_room"/>
-    <hyperlink ref="E6" location="sl_area_type!A1" display="sl_area_type"/>
-    <hyperlink ref="E7" location="sl_lock!A1" display="sl_lock"/>
-    <hyperlink ref="E8" location="sl_key!A1" display="sl_key"/>
-    <hyperlink ref="E9" location="sl_key_controller!A1" display="sl_key_controller"/>
-    <hyperlink ref="E10" location="sl_lock_status_record!A1" display="sl_lock_status_record"/>
-    <hyperlink ref="E11" location="sl_application!A1" display="sl_application"/>
-    <hyperlink ref="E12" location="sl_key_authorization!A1" display="sl_key_authorization"/>
-    <hyperlink ref="E13" location="sl_lock_authorization!A1" display="sl_lock_authorization"/>
-    <hyperlink ref="E14" location="sl_lock_sl_lock_authorization!A1" display="sl_lock_sl_lock_authorization"/>
-    <hyperlink ref="E15" location="sl_lock_authorization_sl_person!A1" display="sl_lock_authorization_sl_person"/>
-    <hyperlink ref="E16" location="sl_application_sl_key_authoriza!A1" display="sl_application_sl_key_authoriza"/>
-    <hyperlink ref="E17" location="sl_application_sl_lock!A1" display="sl_application_sl_lock"/>
-    <hyperlink ref="E18" location="sl_application_sl_person!A1" display="sl_application_sl_person"/>
+    <hyperlink ref="E4" location="sl_person!A1" display="sl_person" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E5" location="sl_room!A1" display="sl_room" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E6" location="sl_area_type!A1" display="sl_area_type" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E7" location="sl_lock!A1" display="sl_lock" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="E8" location="sl_key!A1" display="sl_key" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="E9" location="sl_key_controller!A1" display="sl_key_controller" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="E10" location="sl_lock_status_record!A1" display="sl_lock_status_record" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="E11" location="sl_application!A1" display="sl_application" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="E12" location="sl_key_authorization!A1" display="sl_key_authorization" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="E13" location="sl_lock_authorization!A1" display="sl_lock_authorization" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="E14" location="sl_lock_sl_lock_authorization!A1" display="sl_lock_sl_lock_authorization" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="E15" location="sl_lock_authorization_sl_person!A1" display="sl_lock_authorization_sl_person" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="E16" location="sl_application_sl_key_authoriza!A1" display="sl_application_sl_key_authoriza" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="E17" location="sl_application_sl_lock!A1" display="sl_application_sl_lock" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="E18" location="sl_application_sl_person!A1" display="sl_application_sl_person" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="E19" location="sl_lock_hub!A1" display="sl_lock_hub" xr:uid="{EF5B8216-957C-45F4-8DCD-9E13F6E37D7F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="20" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="18.375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16.5">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3">
+        <v>1</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16.5">
+      <c r="A3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.5">
+      <c r="A5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.5">
+      <c r="A6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.5">
+      <c r="A7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="3">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5">
+      <c r="A8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J1" location="目录!A1" display="目录" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="59" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="59.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
+    <col min="9" max="11" width="59.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -7688,7 +8308,7 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N1" location="目录!A1" display="目录"/>
+    <hyperlink ref="N1" location="目录!A1" display="目录" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="59" orientation="portrait" r:id="rId1"/>
@@ -7696,27 +8316,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.5703125" style="1" customWidth="1"/>
-    <col min="9" max="11" width="59.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.625" style="1" customWidth="1"/>
+    <col min="9" max="11" width="59.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -8108,34 +8728,34 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N1" location="目录!A1" display="目录"/>
+    <hyperlink ref="N1" location="目录!A1" display="目录" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.5703125" style="1" customWidth="1"/>
-    <col min="9" max="11" width="59.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.625" style="1" customWidth="1"/>
+    <col min="9" max="11" width="59.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -8519,34 +9139,34 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N1" location="目录!A1" display="目录"/>
+    <hyperlink ref="N1" location="目录!A1" display="目录" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.5703125" style="1" customWidth="1"/>
-    <col min="9" max="11" width="59.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.625" style="1" customWidth="1"/>
+    <col min="9" max="11" width="59.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -8930,32 +9550,32 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N1" location="目录!A1" display="目录"/>
+    <hyperlink ref="N1" location="目录!A1" display="目录" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.5703125" style="1" customWidth="1"/>
-    <col min="9" max="11" width="59.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.625" style="1" customWidth="1"/>
+    <col min="9" max="11" width="59.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -9333,34 +9953,34 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N1" location="目录!A1" display="目录"/>
+    <hyperlink ref="N1" location="目录!A1" display="目录" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.5703125" style="1" customWidth="1"/>
-    <col min="9" max="11" width="59.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.625" style="1" customWidth="1"/>
+    <col min="9" max="11" width="59.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -9809,35 +10429,35 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N1" location="目录!A1" display="目录"/>
+    <hyperlink ref="N1" location="目录!A1" display="目录" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="43.7109375" style="1" customWidth="1"/>
-    <col min="10" max="11" width="59.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="43.75" style="1" customWidth="1"/>
+    <col min="10" max="11" width="59.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -10221,7 +10841,7 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N1" location="目录!A1" display="目录"/>
+    <hyperlink ref="N1" location="目录!A1" display="目录" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/smartlockv2/SmartLock数据库详细设计书.xlsx
+++ b/smartlockv2/SmartLock数据库详细设计书.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wzscq\Documents\GitHub\crvframe\service\apps\smartlockv2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8078B0A3-0BD1-4975-8EF9-47B74894B1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BE52E9-C627-4A2A-852A-B365E34A8047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="848" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="848" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="67" r:id="rId1"/>
@@ -428,10 +428,6 @@
     <t>状态/事件</t>
   </si>
   <si>
-    <t>01:开启
-02:关闭</t>
-  </si>
-  <si>
     <t>sl_lock_status_record</t>
   </si>
   <si>
@@ -750,6 +746,13 @@
   </si>
   <si>
     <t>钥匙管理机</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>000:门开锁开
+001:门开锁关
+010:门关锁开
+011:门关锁关</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -1191,26 +1194,15 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1251,6 +1243,27 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1280,16 +1293,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1597,948 +1600,900 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
     </row>
     <row r="3" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
     </row>
     <row r="4" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
     </row>
     <row r="6" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
     </row>
     <row r="8" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="48"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="45"/>
     </row>
     <row r="9" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="51"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="47"/>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="47"/>
+      <c r="AD9" s="47"/>
+      <c r="AE9" s="48"/>
     </row>
     <row r="10" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B10" s="49"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="50"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="51"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="47"/>
+      <c r="AD10" s="47"/>
+      <c r="AE10" s="48"/>
     </row>
     <row r="11" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="51"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="47"/>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="47"/>
+      <c r="AD11" s="47"/>
+      <c r="AE11" s="48"/>
     </row>
     <row r="12" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="50"/>
-      <c r="AA12" s="50"/>
-      <c r="AB12" s="50"/>
-      <c r="AC12" s="50"/>
-      <c r="AD12" s="50"/>
-      <c r="AE12" s="51"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="47"/>
+      <c r="AA12" s="47"/>
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="47"/>
+      <c r="AD12" s="47"/>
+      <c r="AE12" s="48"/>
     </row>
     <row r="13" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="50"/>
-      <c r="AD13" s="50"/>
-      <c r="AE13" s="51"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="47"/>
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="47"/>
+      <c r="AD13" s="47"/>
+      <c r="AE13" s="48"/>
     </row>
     <row r="14" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="50"/>
-      <c r="Y14" s="50"/>
-      <c r="Z14" s="50"/>
-      <c r="AA14" s="50"/>
-      <c r="AB14" s="50"/>
-      <c r="AC14" s="50"/>
-      <c r="AD14" s="50"/>
-      <c r="AE14" s="51"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="47"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="47"/>
+      <c r="AD14" s="47"/>
+      <c r="AE14" s="48"/>
     </row>
     <row r="15" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="50"/>
-      <c r="V15" s="50"/>
-      <c r="W15" s="50"/>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="50"/>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="50"/>
-      <c r="AB15" s="50"/>
-      <c r="AC15" s="50"/>
-      <c r="AD15" s="50"/>
-      <c r="AE15" s="51"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="47"/>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="47"/>
+      <c r="AD15" s="47"/>
+      <c r="AE15" s="48"/>
     </row>
     <row r="16" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B16" s="52"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="53"/>
-      <c r="AB16" s="53"/>
-      <c r="AC16" s="53"/>
-      <c r="AD16" s="53"/>
-      <c r="AE16" s="54"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="50"/>
+      <c r="AA16" s="50"/>
+      <c r="AB16" s="50"/>
+      <c r="AC16" s="50"/>
+      <c r="AD16" s="50"/>
+      <c r="AE16" s="51"/>
     </row>
     <row r="20" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45" t="s">
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45" t="s">
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45" t="s">
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="45"/>
-      <c r="AD20" s="45"/>
-      <c r="AE20" s="45"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="42"/>
     </row>
     <row r="21" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B21" s="36">
+      <c r="B21" s="52">
         <v>1</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="39">
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53">
         <v>44901</v>
       </c>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="40" t="s">
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="36"/>
-      <c r="AA21" s="36"/>
-      <c r="AB21" s="36"/>
-      <c r="AC21" s="36"/>
-      <c r="AD21" s="36"/>
-      <c r="AE21" s="36"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="52"/>
+      <c r="AD21" s="52"/>
+      <c r="AE21" s="52"/>
     </row>
     <row r="22" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="41"/>
-      <c r="AB22" s="41"/>
-      <c r="AC22" s="41"/>
-      <c r="AD22" s="41"/>
-      <c r="AE22" s="41"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="55"/>
+      <c r="Y22" s="55"/>
+      <c r="Z22" s="55"/>
+      <c r="AA22" s="55"/>
+      <c r="AB22" s="55"/>
+      <c r="AC22" s="55"/>
+      <c r="AD22" s="55"/>
+      <c r="AE22" s="55"/>
     </row>
     <row r="23" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="36"/>
-      <c r="AA23" s="36"/>
-      <c r="AB23" s="36"/>
-      <c r="AC23" s="36"/>
-      <c r="AD23" s="36"/>
-      <c r="AE23" s="36"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="52"/>
+      <c r="AC23" s="52"/>
+      <c r="AD23" s="52"/>
+      <c r="AE23" s="52"/>
     </row>
     <row r="24" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="38"/>
-      <c r="AD24" s="38"/>
-      <c r="AE24" s="38"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="57"/>
+      <c r="AB24" s="57"/>
+      <c r="AC24" s="57"/>
+      <c r="AD24" s="57"/>
+      <c r="AE24" s="57"/>
     </row>
     <row r="25" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="36"/>
-      <c r="AA25" s="36"/>
-      <c r="AB25" s="36"/>
-      <c r="AC25" s="36"/>
-      <c r="AD25" s="36"/>
-      <c r="AE25" s="36"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="52"/>
+      <c r="AB25" s="52"/>
+      <c r="AC25" s="52"/>
+      <c r="AD25" s="52"/>
+      <c r="AE25" s="52"/>
     </row>
     <row r="26" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="36"/>
-      <c r="AA26" s="36"/>
-      <c r="AB26" s="36"/>
-      <c r="AC26" s="36"/>
-      <c r="AD26" s="36"/>
-      <c r="AE26" s="36"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="X26" s="52"/>
+      <c r="Y26" s="52"/>
+      <c r="Z26" s="52"/>
+      <c r="AA26" s="52"/>
+      <c r="AB26" s="52"/>
+      <c r="AC26" s="52"/>
+      <c r="AD26" s="52"/>
+      <c r="AE26" s="52"/>
     </row>
     <row r="27" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="36"/>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="36"/>
-      <c r="AA27" s="36"/>
-      <c r="AB27" s="36"/>
-      <c r="AC27" s="36"/>
-      <c r="AD27" s="36"/>
-      <c r="AE27" s="36"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="52"/>
+      <c r="Z27" s="52"/>
+      <c r="AA27" s="52"/>
+      <c r="AB27" s="52"/>
+      <c r="AC27" s="52"/>
+      <c r="AD27" s="52"/>
+      <c r="AE27" s="52"/>
     </row>
     <row r="28" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="36"/>
-      <c r="AC28" s="36"/>
-      <c r="AD28" s="36"/>
-      <c r="AE28" s="36"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="52"/>
+      <c r="X28" s="52"/>
+      <c r="Y28" s="52"/>
+      <c r="Z28" s="52"/>
+      <c r="AA28" s="52"/>
+      <c r="AB28" s="52"/>
+      <c r="AC28" s="52"/>
+      <c r="AD28" s="52"/>
+      <c r="AE28" s="52"/>
     </row>
     <row r="29" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="36"/>
-      <c r="Z29" s="36"/>
-      <c r="AA29" s="36"/>
-      <c r="AB29" s="36"/>
-      <c r="AC29" s="36"/>
-      <c r="AD29" s="36"/>
-      <c r="AE29" s="36"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="52"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="52"/>
+      <c r="Y29" s="52"/>
+      <c r="Z29" s="52"/>
+      <c r="AA29" s="52"/>
+      <c r="AB29" s="52"/>
+      <c r="AC29" s="52"/>
+      <c r="AD29" s="52"/>
+      <c r="AE29" s="52"/>
     </row>
     <row r="30" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="36"/>
-      <c r="Z30" s="36"/>
-      <c r="AA30" s="36"/>
-      <c r="AB30" s="36"/>
-      <c r="AC30" s="36"/>
-      <c r="AD30" s="36"/>
-      <c r="AE30" s="36"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="52"/>
+      <c r="V30" s="52"/>
+      <c r="W30" s="52"/>
+      <c r="X30" s="52"/>
+      <c r="Y30" s="52"/>
+      <c r="Z30" s="52"/>
+      <c r="AA30" s="52"/>
+      <c r="AB30" s="52"/>
+      <c r="AC30" s="52"/>
+      <c r="AD30" s="52"/>
+      <c r="AE30" s="52"/>
     </row>
     <row r="31" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="36"/>
-      <c r="AA31" s="36"/>
-      <c r="AB31" s="36"/>
-      <c r="AC31" s="36"/>
-      <c r="AD31" s="36"/>
-      <c r="AE31" s="36"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="52"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="52"/>
+      <c r="Y31" s="52"/>
+      <c r="Z31" s="52"/>
+      <c r="AA31" s="52"/>
+      <c r="AB31" s="52"/>
+      <c r="AC31" s="52"/>
+      <c r="AD31" s="52"/>
+      <c r="AE31" s="52"/>
     </row>
     <row r="32" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="36"/>
-      <c r="Y32" s="36"/>
-      <c r="Z32" s="36"/>
-      <c r="AA32" s="36"/>
-      <c r="AB32" s="36"/>
-      <c r="AC32" s="36"/>
-      <c r="AD32" s="36"/>
-      <c r="AE32" s="36"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="52"/>
+      <c r="V32" s="52"/>
+      <c r="W32" s="52"/>
+      <c r="X32" s="52"/>
+      <c r="Y32" s="52"/>
+      <c r="Z32" s="52"/>
+      <c r="AA32" s="52"/>
+      <c r="AB32" s="52"/>
+      <c r="AC32" s="52"/>
+      <c r="AD32" s="52"/>
+      <c r="AE32" s="52"/>
     </row>
     <row r="33" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="36"/>
-      <c r="X33" s="36"/>
-      <c r="Y33" s="36"/>
-      <c r="Z33" s="36"/>
-      <c r="AA33" s="36"/>
-      <c r="AB33" s="36"/>
-      <c r="AC33" s="36"/>
-      <c r="AD33" s="36"/>
-      <c r="AE33" s="36"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="52"/>
+      <c r="V33" s="52"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="52"/>
+      <c r="Y33" s="52"/>
+      <c r="Z33" s="52"/>
+      <c r="AA33" s="52"/>
+      <c r="AB33" s="52"/>
+      <c r="AC33" s="52"/>
+      <c r="AD33" s="52"/>
+      <c r="AE33" s="52"/>
     </row>
     <row r="34" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="36"/>
-      <c r="AA34" s="36"/>
-      <c r="AB34" s="36"/>
-      <c r="AC34" s="36"/>
-      <c r="AD34" s="36"/>
-      <c r="AE34" s="36"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="52"/>
+      <c r="R34" s="52"/>
+      <c r="S34" s="52"/>
+      <c r="T34" s="52"/>
+      <c r="U34" s="52"/>
+      <c r="V34" s="52"/>
+      <c r="W34" s="52"/>
+      <c r="X34" s="52"/>
+      <c r="Y34" s="52"/>
+      <c r="Z34" s="52"/>
+      <c r="AA34" s="52"/>
+      <c r="AB34" s="52"/>
+      <c r="AC34" s="52"/>
+      <c r="AD34" s="52"/>
+      <c r="AE34" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="B4:AE4"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="M20:S20"/>
-    <mergeCell ref="T20:AE20"/>
-    <mergeCell ref="B8:AE16"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="M21:S21"/>
-    <mergeCell ref="T21:AE21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="M22:S22"/>
-    <mergeCell ref="T22:AE22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="M23:S23"/>
-    <mergeCell ref="T23:AE23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="M24:S24"/>
-    <mergeCell ref="T24:AE24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="M25:S25"/>
-    <mergeCell ref="T25:AE25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="M26:S26"/>
-    <mergeCell ref="T26:AE26"/>
-    <mergeCell ref="T27:AE27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="M28:S28"/>
-    <mergeCell ref="T28:AE28"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="G34:L34"/>
-    <mergeCell ref="M34:S34"/>
-    <mergeCell ref="T34:AE34"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="M31:S31"/>
-    <mergeCell ref="T31:AE31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="M32:S32"/>
-    <mergeCell ref="T32:AE32"/>
     <mergeCell ref="B2:AE3"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="G33:L33"/>
@@ -2555,6 +2510,54 @@
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="G27:L27"/>
     <mergeCell ref="M27:S27"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="M34:S34"/>
+    <mergeCell ref="T34:AE34"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="M31:S31"/>
+    <mergeCell ref="T31:AE31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="M32:S32"/>
+    <mergeCell ref="T32:AE32"/>
+    <mergeCell ref="T27:AE27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="M28:S28"/>
+    <mergeCell ref="T28:AE28"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="M25:S25"/>
+    <mergeCell ref="T25:AE25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="M26:S26"/>
+    <mergeCell ref="T26:AE26"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="M23:S23"/>
+    <mergeCell ref="T23:AE23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="M24:S24"/>
+    <mergeCell ref="T24:AE24"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="M21:S21"/>
+    <mergeCell ref="T21:AE21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="M22:S22"/>
+    <mergeCell ref="T22:AE22"/>
+    <mergeCell ref="B4:AE4"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="M20:S20"/>
+    <mergeCell ref="T20:AE20"/>
+    <mergeCell ref="B8:AE16"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2592,15 +2595,15 @@
         <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="57" t="s">
-        <v>181</v>
-      </c>
-      <c r="E1" s="57"/>
+      <c r="D1" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="61"/>
       <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
@@ -2687,7 +2690,7 @@
     </row>
     <row r="4" spans="1:14" ht="16.5">
       <c r="A4" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>43</v>
@@ -2706,7 +2709,7 @@
         <v>70</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I4" s="22" t="str">
         <f t="shared" si="0"/>
@@ -2727,7 +2730,7 @@
     </row>
     <row r="5" spans="1:14" ht="16.5">
       <c r="A5" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>119</v>
@@ -2746,7 +2749,7 @@
         <v>70</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I5" s="22" t="str">
         <f t="shared" si="0"/>
@@ -2977,8 +2980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3003,15 +3006,15 @@
         <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="57"/>
+      <c r="D1" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="61"/>
       <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
@@ -3098,7 +3101,7 @@
     </row>
     <row r="4" spans="1:14" ht="16.5">
       <c r="A4" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>43</v>
@@ -3117,7 +3120,7 @@
         <v>122</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I4" s="22"/>
       <c r="J4" s="1" t="str">
@@ -3135,7 +3138,7 @@
     </row>
     <row r="5" spans="1:14" ht="16.5">
       <c r="A5" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>43</v>
@@ -3151,10 +3154,10 @@
       </c>
       <c r="F5" s="30"/>
       <c r="G5" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="1" t="str">
@@ -3167,31 +3170,31 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="36">
+        <v>20</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="B6" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="66">
-        <v>20</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="67" t="s">
-        <v>215</v>
-      </c>
-      <c r="H6" s="68"/>
+      <c r="H6" s="38"/>
       <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:14" ht="16.5">
       <c r="A7" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>43</v>
@@ -3207,10 +3210,10 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I7" s="22" t="str">
         <f t="shared" si="0"/>
@@ -3227,7 +3230,7 @@
     </row>
     <row r="8" spans="1:14" ht="16.5">
       <c r="A8" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>50</v>
@@ -3243,7 +3246,7 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="22" t="str">
@@ -3261,7 +3264,7 @@
     </row>
     <row r="9" spans="1:14" ht="16.5">
       <c r="A9" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>50</v>
@@ -3277,7 +3280,7 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="22" t="str">
@@ -3295,10 +3298,10 @@
     </row>
     <row r="10" spans="1:14" ht="16.5">
       <c r="A10" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -3311,7 +3314,7 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="22" t="str">
@@ -3329,10 +3332,10 @@
     </row>
     <row r="11" spans="1:14" ht="16.5">
       <c r="A11" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
@@ -3345,7 +3348,7 @@
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="22" t="str">
@@ -3363,7 +3366,7 @@
     </row>
     <row r="12" spans="1:14" ht="16.5">
       <c r="A12" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>43</v>
@@ -3379,7 +3382,7 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="22" t="str">
@@ -3397,7 +3400,7 @@
     </row>
     <row r="13" spans="1:14" ht="66">
       <c r="A13" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>43</v>
@@ -3412,13 +3415,13 @@
         <v>52</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I13" s="22" t="str">
         <f t="shared" si="0"/>
@@ -3435,7 +3438,7 @@
     </row>
     <row r="14" spans="1:14" ht="16.5">
       <c r="A14" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>43</v>
@@ -3451,7 +3454,7 @@
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="22" t="str">
@@ -3691,8 +3694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3717,15 +3720,15 @@
         <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="57"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
@@ -3850,7 +3853,7 @@
         <v>{"field":"lock_id","width":150},</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="33">
+    <row r="5" spans="1:14" ht="66">
       <c r="A5" s="3" t="s">
         <v>124</v>
       </c>
@@ -3858,7 +3861,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>24</v>
@@ -3871,11 +3874,11 @@
         <v>125</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="I5" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>status varchar(2) NOT NULL ,</v>
+        <v>status varchar(3) NOT NULL ,</v>
       </c>
       <c r="J5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4141,10 +4144,10 @@
       <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="57"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
@@ -4381,7 +4384,7 @@
     </row>
     <row r="8" spans="1:14" ht="16.5">
       <c r="A8" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>43</v>
@@ -4390,14 +4393,14 @@
         <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="35" t="s">
         <v>207</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="65" t="s">
-        <v>208</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="22" t="str">
@@ -4415,7 +4418,7 @@
     </row>
     <row r="9" spans="1:14" ht="16.5">
       <c r="A9" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>43</v>
@@ -4424,14 +4427,14 @@
         <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="65" t="s">
-        <v>209</v>
+      <c r="G9" s="35" t="s">
+        <v>208</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="22" t="str">
@@ -4731,15 +4734,15 @@
         <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="57" t="s">
-        <v>201</v>
-      </c>
-      <c r="E1" s="57"/>
+      <c r="D1" s="61" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" s="61"/>
       <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
@@ -4805,7 +4808,7 @@
         <v>70</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I3" s="22" t="str">
         <f t="shared" ref="I3:I10" si="0">A3&amp;" "&amp;B3&amp;"("&amp;C3&amp;") "&amp;E3&amp;" "&amp;F3&amp;","</f>
@@ -4826,7 +4829,7 @@
     </row>
     <row r="4" spans="1:14" ht="16.5">
       <c r="A4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>43</v>
@@ -4842,10 +4845,10 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I4" s="22" t="str">
         <f t="shared" si="0"/>
@@ -5148,15 +5151,15 @@
         <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="57"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
@@ -5243,7 +5246,7 @@
     </row>
     <row r="4" spans="1:14" ht="16.5">
       <c r="A4" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>43</v>
@@ -5258,8 +5261,8 @@
         <v>52</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="65" t="s">
-        <v>211</v>
+      <c r="G4" s="35" t="s">
+        <v>210</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="22" t="str">
@@ -5568,10 +5571,10 @@
       <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="57"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
@@ -5696,7 +5699,7 @@
     </row>
     <row r="5" spans="1:14" ht="16.5">
       <c r="A5" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>43</v>
@@ -5705,14 +5708,14 @@
         <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="65" t="s">
-        <v>213</v>
+      <c r="G5" s="35" t="s">
+        <v>212</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="22" t="str">
@@ -6013,10 +6016,10 @@
       <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="57"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
@@ -6382,47 +6385,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="14.25" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="59" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
     </row>
     <row r="2" spans="1:31" ht="14.25" customHeight="1">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
     </row>
     <row r="3" spans="1:31" ht="14.25" customHeight="1">
       <c r="D3" s="13"/>
@@ -6487,10 +6490,10 @@
       <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="57"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
@@ -6932,45 +6935,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1">
       <c r="H2" s="28"/>
@@ -6991,7 +6994,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AB3" s="18" t="s">
         <v>11</v>
@@ -7007,7 +7010,7 @@
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I4" s="28"/>
     </row>
@@ -7021,7 +7024,7 @@
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I5" s="28"/>
     </row>
@@ -7035,7 +7038,7 @@
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I6" s="28"/>
     </row>
@@ -7049,7 +7052,7 @@
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I7" s="28"/>
     </row>
@@ -7063,7 +7066,7 @@
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I8" s="28"/>
     </row>
@@ -7077,13 +7080,13 @@
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I9" s="28"/>
     </row>
     <row r="10" spans="1:35" ht="14.25" customHeight="1">
       <c r="E10" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F10" s="27" t="str">
         <f>sl_lock_status_record!D1</f>
@@ -7091,13 +7094,13 @@
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I10" s="28"/>
     </row>
     <row r="11" spans="1:35" ht="14.25" customHeight="1">
       <c r="E11" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F11" s="19" t="str">
         <f>sl_application!D1</f>
@@ -7105,13 +7108,13 @@
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I11" s="28"/>
     </row>
     <row r="12" spans="1:35" ht="14.25" customHeight="1">
       <c r="E12" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F12" s="19" t="str">
         <f>sl_key_authorization!D1</f>
@@ -7119,13 +7122,13 @@
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I12" s="28"/>
     </row>
     <row r="13" spans="1:35" ht="14.25" customHeight="1">
       <c r="E13" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F13" s="19" t="str">
         <f>sl_lock_authorization!D1</f>
@@ -7133,13 +7136,13 @@
       </c>
       <c r="G13" s="19"/>
       <c r="H13" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:35" ht="14.25" customHeight="1">
       <c r="E14" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F14" s="34" t="str">
         <f>sl_lock_sl_lock_authorization!D1</f>
@@ -7147,13 +7150,13 @@
       </c>
       <c r="G14" s="19"/>
       <c r="H14" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:35" ht="14.25" customHeight="1">
       <c r="E15" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F15" s="34" t="str">
         <f>sl_lock_authorization_sl_person!D1</f>
@@ -7161,13 +7164,13 @@
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I15" s="28"/>
     </row>
     <row r="16" spans="1:35" ht="14.25" customHeight="1">
       <c r="E16" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F16" s="34" t="str">
         <f>sl_application_sl_key_authoriza!D1</f>
@@ -7175,13 +7178,13 @@
       </c>
       <c r="G16" s="19"/>
       <c r="H16" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I16" s="28"/>
     </row>
     <row r="17" spans="5:9" ht="14.25" customHeight="1">
       <c r="E17" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F17" s="34" t="str">
         <f>sl_application_sl_lock!D1</f>
@@ -7189,13 +7192,13 @@
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I17" s="28"/>
     </row>
     <row r="18" spans="5:9" ht="14.25" customHeight="1">
       <c r="E18" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F18" s="34" t="str">
         <f>sl_application_sl_person!D1</f>
@@ -7203,13 +7206,13 @@
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I18" s="28"/>
     </row>
     <row r="19" spans="5:9" ht="14.25" customHeight="1">
       <c r="E19" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F19" s="27" t="str">
         <f>sl_lock_hub!D1</f>
@@ -7376,11 +7379,11 @@
       <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
       <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
@@ -7594,12 +7597,12 @@
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
       <c r="F13" s="9" t="s">
         <v>36</v>
       </c>
@@ -7609,10 +7612,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
@@ -7666,10 +7669,10 @@
       <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="57"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
@@ -8345,15 +8348,15 @@
         <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="E1" s="57"/>
+      <c r="D1" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="61"/>
       <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
@@ -8440,7 +8443,7 @@
     </row>
     <row r="4" spans="1:14" ht="16.5">
       <c r="A4" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -8451,7 +8454,7 @@
         <v>98</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I4" s="22"/>
       <c r="J4" s="1" t="str">
@@ -8469,7 +8472,7 @@
     </row>
     <row r="5" spans="1:14" ht="16.5">
       <c r="A5" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -8477,10 +8480,10 @@
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
       <c r="G5" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I5" s="22"/>
     </row>
@@ -8764,15 +8767,15 @@
         <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" s="57"/>
+      <c r="D1" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="61"/>
       <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
@@ -8859,7 +8862,7 @@
     </row>
     <row r="4" spans="1:14" ht="16.5">
       <c r="A4" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>119</v>
@@ -8878,7 +8881,7 @@
         <v>70</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I4" s="22" t="str">
         <f t="shared" si="0"/>
@@ -8899,7 +8902,7 @@
     </row>
     <row r="5" spans="1:14" ht="16.5">
       <c r="A5" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>43</v>
@@ -8918,7 +8921,7 @@
         <v>79</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I5" s="22" t="str">
         <f t="shared" si="0"/>
@@ -9175,15 +9178,15 @@
         <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="E1" s="57"/>
+      <c r="D1" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="61"/>
       <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
@@ -9270,7 +9273,7 @@
     </row>
     <row r="4" spans="1:14" ht="16.5">
       <c r="A4" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>43</v>
@@ -9289,7 +9292,7 @@
         <v>70</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I4" s="22" t="str">
         <f t="shared" si="0"/>
@@ -9310,7 +9313,7 @@
     </row>
     <row r="5" spans="1:14" ht="16.5">
       <c r="A5" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>119</v>
@@ -9329,7 +9332,7 @@
         <v>70</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I5" s="22" t="str">
         <f t="shared" si="0"/>
@@ -9584,15 +9587,15 @@
         <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="57" t="s">
-        <v>171</v>
-      </c>
-      <c r="E1" s="57"/>
+      <c r="D1" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="61"/>
       <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
@@ -9679,7 +9682,7 @@
     </row>
     <row r="4" spans="1:14" ht="16.5">
       <c r="A4" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>119</v>
@@ -9698,7 +9701,7 @@
         <v>70</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I4" s="22"/>
       <c r="J4" s="1" t="str">
@@ -9716,7 +9719,7 @@
     </row>
     <row r="5" spans="1:14" ht="16.5">
       <c r="A5" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>119</v>
@@ -9735,7 +9738,7 @@
         <v>70</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I5" s="22"/>
     </row>
@@ -9989,15 +9992,15 @@
         <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="57" t="s">
-        <v>151</v>
-      </c>
-      <c r="E1" s="57"/>
+      <c r="D1" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="61"/>
       <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
@@ -10084,7 +10087,7 @@
     </row>
     <row r="4" spans="1:14" ht="16.5">
       <c r="A4" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>43</v>
@@ -10103,7 +10106,7 @@
         <v>117</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I4" s="22" t="str">
         <f t="shared" si="0"/>
@@ -10124,7 +10127,7 @@
     </row>
     <row r="5" spans="1:14" ht="16.5">
       <c r="A5" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>43</v>
@@ -10143,7 +10146,7 @@
         <v>110</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I5" s="22" t="str">
         <f t="shared" si="0"/>
@@ -10194,7 +10197,7 @@
     </row>
     <row r="7" spans="1:14" ht="16.5">
       <c r="A7" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -10203,7 +10206,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="31"/>
       <c r="H7" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="1" t="str">
@@ -10466,15 +10469,15 @@
         <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="57" t="s">
-        <v>185</v>
-      </c>
-      <c r="E1" s="57"/>
+      <c r="D1" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="61"/>
       <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
@@ -10561,7 +10564,7 @@
     </row>
     <row r="4" spans="1:14" ht="16.5">
       <c r="A4" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>119</v>
@@ -10580,7 +10583,7 @@
         <v>70</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I4" s="22" t="str">
         <f t="shared" si="0"/>
@@ -10601,7 +10604,7 @@
     </row>
     <row r="5" spans="1:14" ht="16.5">
       <c r="A5" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>43</v>
@@ -10620,7 +10623,7 @@
         <v>79</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I5" s="22" t="str">
         <f t="shared" si="0"/>

--- a/smartlockv2/SmartLock数据库详细设计书.xlsx
+++ b/smartlockv2/SmartLock数据库详细设计书.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wzscq\Documents\GitHub\crvframe\service\apps\smartlockv2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BE52E9-C627-4A2A-852A-B365E34A8047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4099D4F8-FC9D-45CA-B9BA-77A59058D405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="848" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="848" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="67" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="221">
   <si>
     <t>数据库详细设计书</t>
   </si>
@@ -753,6 +753,28 @@
 001:门开锁关
 010:门关锁开
 011:门关锁关</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>close_delay</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>闭锁延迟</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>010:10秒
+030:30秒
+060:60秒</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT '010'</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -1114,7 +1136,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1204,6 +1226,27 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1243,27 +1286,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1293,6 +1315,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1600,900 +1625,948 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
     </row>
     <row r="3" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="58"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
     </row>
     <row r="4" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="47"/>
     </row>
     <row r="6" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
     </row>
     <row r="8" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="45"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="51"/>
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="51"/>
+      <c r="AB8" s="51"/>
+      <c r="AC8" s="51"/>
+      <c r="AD8" s="51"/>
+      <c r="AE8" s="52"/>
     </row>
     <row r="9" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="47"/>
-      <c r="AB9" s="47"/>
-      <c r="AC9" s="47"/>
-      <c r="AD9" s="47"/>
-      <c r="AE9" s="48"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="54"/>
+      <c r="AC9" s="54"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="55"/>
     </row>
     <row r="10" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="47"/>
-      <c r="AC10" s="47"/>
-      <c r="AD10" s="47"/>
-      <c r="AE10" s="48"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="54"/>
+      <c r="Y10" s="54"/>
+      <c r="Z10" s="54"/>
+      <c r="AA10" s="54"/>
+      <c r="AB10" s="54"/>
+      <c r="AC10" s="54"/>
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="55"/>
     </row>
     <row r="11" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="47"/>
-      <c r="AB11" s="47"/>
-      <c r="AC11" s="47"/>
-      <c r="AD11" s="47"/>
-      <c r="AE11" s="48"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="54"/>
+      <c r="Z11" s="54"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="54"/>
+      <c r="AC11" s="54"/>
+      <c r="AD11" s="54"/>
+      <c r="AE11" s="55"/>
     </row>
     <row r="12" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="47"/>
-      <c r="AB12" s="47"/>
-      <c r="AC12" s="47"/>
-      <c r="AD12" s="47"/>
-      <c r="AE12" s="48"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="54"/>
+      <c r="Y12" s="54"/>
+      <c r="Z12" s="54"/>
+      <c r="AA12" s="54"/>
+      <c r="AB12" s="54"/>
+      <c r="AC12" s="54"/>
+      <c r="AD12" s="54"/>
+      <c r="AE12" s="55"/>
     </row>
     <row r="13" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="47"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="47"/>
-      <c r="AD13" s="47"/>
-      <c r="AE13" s="48"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="54"/>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="54"/>
+      <c r="AB13" s="54"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="55"/>
     </row>
     <row r="14" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="47"/>
-      <c r="AD14" s="47"/>
-      <c r="AE14" s="48"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="54"/>
+      <c r="Z14" s="54"/>
+      <c r="AA14" s="54"/>
+      <c r="AB14" s="54"/>
+      <c r="AC14" s="54"/>
+      <c r="AD14" s="54"/>
+      <c r="AE14" s="55"/>
     </row>
     <row r="15" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="47"/>
-      <c r="Y15" s="47"/>
-      <c r="Z15" s="47"/>
-      <c r="AA15" s="47"/>
-      <c r="AB15" s="47"/>
-      <c r="AC15" s="47"/>
-      <c r="AD15" s="47"/>
-      <c r="AE15" s="48"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="54"/>
+      <c r="AA15" s="54"/>
+      <c r="AB15" s="54"/>
+      <c r="AC15" s="54"/>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="55"/>
     </row>
     <row r="16" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B16" s="49"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="50"/>
-      <c r="AA16" s="50"/>
-      <c r="AB16" s="50"/>
-      <c r="AC16" s="50"/>
-      <c r="AD16" s="50"/>
-      <c r="AE16" s="51"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="57"/>
+      <c r="AE16" s="58"/>
     </row>
     <row r="20" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42" t="s">
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42" t="s">
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42" t="s">
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="42"/>
-      <c r="AB20" s="42"/>
-      <c r="AC20" s="42"/>
-      <c r="AD20" s="42"/>
-      <c r="AE20" s="42"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="49"/>
+      <c r="AA20" s="49"/>
+      <c r="AB20" s="49"/>
+      <c r="AC20" s="49"/>
+      <c r="AD20" s="49"/>
+      <c r="AE20" s="49"/>
     </row>
     <row r="21" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B21" s="52">
+      <c r="B21" s="40">
         <v>1</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53">
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="43">
         <v>44901</v>
       </c>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="54" t="s">
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="52"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="52"/>
-      <c r="AD21" s="52"/>
-      <c r="AE21" s="52"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="40"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="40"/>
     </row>
     <row r="22" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="55"/>
-      <c r="Y22" s="55"/>
-      <c r="Z22" s="55"/>
-      <c r="AA22" s="55"/>
-      <c r="AB22" s="55"/>
-      <c r="AC22" s="55"/>
-      <c r="AD22" s="55"/>
-      <c r="AE22" s="55"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="45"/>
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="45"/>
+      <c r="AD22" s="45"/>
+      <c r="AE22" s="45"/>
     </row>
     <row r="23" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="52"/>
-      <c r="W23" s="52"/>
-      <c r="X23" s="52"/>
-      <c r="Y23" s="52"/>
-      <c r="Z23" s="52"/>
-      <c r="AA23" s="52"/>
-      <c r="AB23" s="52"/>
-      <c r="AC23" s="52"/>
-      <c r="AD23" s="52"/>
-      <c r="AE23" s="52"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="40"/>
     </row>
     <row r="24" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="57"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="57"/>
-      <c r="Y24" s="57"/>
-      <c r="Z24" s="57"/>
-      <c r="AA24" s="57"/>
-      <c r="AB24" s="57"/>
-      <c r="AC24" s="57"/>
-      <c r="AD24" s="57"/>
-      <c r="AE24" s="57"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="42"/>
+      <c r="AD24" s="42"/>
+      <c r="AE24" s="42"/>
     </row>
     <row r="25" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="52"/>
-      <c r="AB25" s="52"/>
-      <c r="AC25" s="52"/>
-      <c r="AD25" s="52"/>
-      <c r="AE25" s="52"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="40"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="40"/>
+      <c r="AE25" s="40"/>
     </row>
     <row r="26" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="52"/>
-      <c r="Y26" s="52"/>
-      <c r="Z26" s="52"/>
-      <c r="AA26" s="52"/>
-      <c r="AB26" s="52"/>
-      <c r="AC26" s="52"/>
-      <c r="AD26" s="52"/>
-      <c r="AE26" s="52"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="40"/>
     </row>
     <row r="27" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="52"/>
-      <c r="Z27" s="52"/>
-      <c r="AA27" s="52"/>
-      <c r="AB27" s="52"/>
-      <c r="AC27" s="52"/>
-      <c r="AD27" s="52"/>
-      <c r="AE27" s="52"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
+      <c r="AA27" s="40"/>
+      <c r="AB27" s="40"/>
+      <c r="AC27" s="40"/>
+      <c r="AD27" s="40"/>
+      <c r="AE27" s="40"/>
     </row>
     <row r="28" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="52"/>
-      <c r="X28" s="52"/>
-      <c r="Y28" s="52"/>
-      <c r="Z28" s="52"/>
-      <c r="AA28" s="52"/>
-      <c r="AB28" s="52"/>
-      <c r="AC28" s="52"/>
-      <c r="AD28" s="52"/>
-      <c r="AE28" s="52"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="40"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="40"/>
+      <c r="AD28" s="40"/>
+      <c r="AE28" s="40"/>
     </row>
     <row r="29" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52"/>
-      <c r="W29" s="52"/>
-      <c r="X29" s="52"/>
-      <c r="Y29" s="52"/>
-      <c r="Z29" s="52"/>
-      <c r="AA29" s="52"/>
-      <c r="AB29" s="52"/>
-      <c r="AC29" s="52"/>
-      <c r="AD29" s="52"/>
-      <c r="AE29" s="52"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="40"/>
+      <c r="X29" s="40"/>
+      <c r="Y29" s="40"/>
+      <c r="Z29" s="40"/>
+      <c r="AA29" s="40"/>
+      <c r="AB29" s="40"/>
+      <c r="AC29" s="40"/>
+      <c r="AD29" s="40"/>
+      <c r="AE29" s="40"/>
     </row>
     <row r="30" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="52"/>
-      <c r="V30" s="52"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="52"/>
-      <c r="Y30" s="52"/>
-      <c r="Z30" s="52"/>
-      <c r="AA30" s="52"/>
-      <c r="AB30" s="52"/>
-      <c r="AC30" s="52"/>
-      <c r="AD30" s="52"/>
-      <c r="AE30" s="52"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="40"/>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="40"/>
+      <c r="Z30" s="40"/>
+      <c r="AA30" s="40"/>
+      <c r="AB30" s="40"/>
+      <c r="AC30" s="40"/>
+      <c r="AD30" s="40"/>
+      <c r="AE30" s="40"/>
     </row>
     <row r="31" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="52"/>
-      <c r="Z31" s="52"/>
-      <c r="AA31" s="52"/>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="52"/>
-      <c r="AD31" s="52"/>
-      <c r="AE31" s="52"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="40"/>
+      <c r="AA31" s="40"/>
+      <c r="AB31" s="40"/>
+      <c r="AC31" s="40"/>
+      <c r="AD31" s="40"/>
+      <c r="AE31" s="40"/>
     </row>
     <row r="32" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="52"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="52"/>
-      <c r="Y32" s="52"/>
-      <c r="Z32" s="52"/>
-      <c r="AA32" s="52"/>
-      <c r="AB32" s="52"/>
-      <c r="AC32" s="52"/>
-      <c r="AD32" s="52"/>
-      <c r="AE32" s="52"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="40"/>
+      <c r="X32" s="40"/>
+      <c r="Y32" s="40"/>
+      <c r="Z32" s="40"/>
+      <c r="AA32" s="40"/>
+      <c r="AB32" s="40"/>
+      <c r="AC32" s="40"/>
+      <c r="AD32" s="40"/>
+      <c r="AE32" s="40"/>
     </row>
     <row r="33" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52"/>
-      <c r="V33" s="52"/>
-      <c r="W33" s="52"/>
-      <c r="X33" s="52"/>
-      <c r="Y33" s="52"/>
-      <c r="Z33" s="52"/>
-      <c r="AA33" s="52"/>
-      <c r="AB33" s="52"/>
-      <c r="AC33" s="52"/>
-      <c r="AD33" s="52"/>
-      <c r="AE33" s="52"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="40"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="40"/>
+      <c r="AB33" s="40"/>
+      <c r="AC33" s="40"/>
+      <c r="AD33" s="40"/>
+      <c r="AE33" s="40"/>
     </row>
     <row r="34" spans="2:31" ht="14.25" customHeight="1">
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="52"/>
-      <c r="U34" s="52"/>
-      <c r="V34" s="52"/>
-      <c r="W34" s="52"/>
-      <c r="X34" s="52"/>
-      <c r="Y34" s="52"/>
-      <c r="Z34" s="52"/>
-      <c r="AA34" s="52"/>
-      <c r="AB34" s="52"/>
-      <c r="AC34" s="52"/>
-      <c r="AD34" s="52"/>
-      <c r="AE34" s="52"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="40"/>
+      <c r="X34" s="40"/>
+      <c r="Y34" s="40"/>
+      <c r="Z34" s="40"/>
+      <c r="AA34" s="40"/>
+      <c r="AB34" s="40"/>
+      <c r="AC34" s="40"/>
+      <c r="AD34" s="40"/>
+      <c r="AE34" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="B4:AE4"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="M20:S20"/>
+    <mergeCell ref="T20:AE20"/>
+    <mergeCell ref="B8:AE16"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="M21:S21"/>
+    <mergeCell ref="T21:AE21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="M22:S22"/>
+    <mergeCell ref="T22:AE22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="M23:S23"/>
+    <mergeCell ref="T23:AE23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="M24:S24"/>
+    <mergeCell ref="T24:AE24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="M25:S25"/>
+    <mergeCell ref="T25:AE25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="M26:S26"/>
+    <mergeCell ref="T26:AE26"/>
+    <mergeCell ref="T27:AE27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="M28:S28"/>
+    <mergeCell ref="T28:AE28"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="M34:S34"/>
+    <mergeCell ref="T34:AE34"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="M31:S31"/>
+    <mergeCell ref="T31:AE31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="M32:S32"/>
+    <mergeCell ref="T32:AE32"/>
     <mergeCell ref="B2:AE3"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="G33:L33"/>
@@ -2510,54 +2583,6 @@
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="G27:L27"/>
     <mergeCell ref="M27:S27"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="G34:L34"/>
-    <mergeCell ref="M34:S34"/>
-    <mergeCell ref="T34:AE34"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="M31:S31"/>
-    <mergeCell ref="T31:AE31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="M32:S32"/>
-    <mergeCell ref="T32:AE32"/>
-    <mergeCell ref="T27:AE27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="M28:S28"/>
-    <mergeCell ref="T28:AE28"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="M25:S25"/>
-    <mergeCell ref="T25:AE25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="M26:S26"/>
-    <mergeCell ref="T26:AE26"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="M23:S23"/>
-    <mergeCell ref="T23:AE23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="M24:S24"/>
-    <mergeCell ref="T24:AE24"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="M21:S21"/>
-    <mergeCell ref="T21:AE21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="M22:S22"/>
-    <mergeCell ref="T22:AE22"/>
-    <mergeCell ref="B4:AE4"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="M20:S20"/>
-    <mergeCell ref="T20:AE20"/>
-    <mergeCell ref="B8:AE16"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3694,8 +3719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6913,7 +6938,7 @@
   <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" customHeight="1"/>
@@ -8320,10 +8345,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8425,15 +8450,15 @@
         <v>120</v>
       </c>
       <c r="I3" s="22" t="str">
-        <f t="shared" ref="I3:I11" si="0">A3&amp;" "&amp;B3&amp;"("&amp;C3&amp;") "&amp;E3&amp;" "&amp;F3&amp;","</f>
+        <f t="shared" ref="I3:I12" si="0">A3&amp;" "&amp;B3&amp;"("&amp;C3&amp;") "&amp;E3&amp;" "&amp;F3&amp;","</f>
         <v>id bigint(18) NOT NULL ,</v>
       </c>
       <c r="J3" s="1" t="str">
-        <f t="shared" ref="J3:J11" si="1">"{""field"":"""&amp;A3&amp;""",""name"":"""&amp;G3&amp;""",""dataType"":"""&amp;B3&amp;"""},"</f>
+        <f t="shared" ref="J3:J12" si="1">"{""field"":"""&amp;A3&amp;""",""name"":"""&amp;G3&amp;""",""dataType"":"""&amp;B3&amp;"""},"</f>
         <v>{"field":"id","name":"编号","dataType":"bigint"},</v>
       </c>
       <c r="K3" s="1" t="str">
-        <f t="shared" ref="K3:K11" si="2">"{""field"":"""&amp;A3&amp;""",""labelRegexp"":"""&amp;G3&amp;""",""excelRangeType"":""table""},"</f>
+        <f t="shared" ref="K3:K12" si="2">"{""field"":"""&amp;A3&amp;""",""labelRegexp"":"""&amp;G3&amp;""",""excelRangeType"":""table""},"</f>
         <v>{"field":"id","labelRegexp":"编号","excelRangeType":"table"},</v>
       </c>
       <c r="L3" s="1" t="str">
@@ -8466,7 +8491,7 @@
         <v>{"field":"locks","labelRegexp":"智能锁","excelRangeType":"table"},</v>
       </c>
       <c r="L4" s="1" t="str">
-        <f t="shared" ref="L4:L11" si="3">"{""field"":"""&amp;A4&amp;""",""width"":150},"</f>
+        <f t="shared" ref="L4:L12" si="3">"{""field"":"""&amp;A4&amp;""",""width"":150},"</f>
         <v>{"field":"locks","width":150},</v>
       </c>
     </row>
@@ -8487,240 +8512,274 @@
       </c>
       <c r="I5" s="22"/>
     </row>
-    <row r="6" spans="1:14" ht="16.5">
-      <c r="A6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="3">
-        <v>255</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="25"/>
+    <row r="6" spans="1:14" ht="49.5">
+      <c r="A6" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="30">
+        <v>3</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>218</v>
+      </c>
       <c r="I6" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>remark varchar(255) NULL ,</v>
+        <v>close_delay varchar(3) NOT NULL DEFAULT '010',</v>
       </c>
       <c r="J6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"field":"remark","name":"备注","dataType":"varchar"},</v>
+        <v>{"field":"close_delay","name":"闭锁延迟","dataType":"varchar"},</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="16.5">
       <c r="A7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="3">
+        <v>255</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="25"/>
+      <c r="I7" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>remark varchar(255) NULL ,</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{"field":"remark","name":"备注","dataType":"varchar"},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="16.5">
+      <c r="A8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C8" s="3">
         <v>0</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="11" t="s">
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H8" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="22" t="str">
+      <c r="I8" s="22" t="str">
         <f t="shared" si="0"/>
         <v>create_time datetime(0) NOT NULL ,</v>
       </c>
-      <c r="J7" s="1" t="str">
+      <c r="J8" s="1" t="str">
         <f t="shared" si="1"/>
         <v>{"field":"create_time","name":"记录创建时间","dataType":"datetime"},</v>
       </c>
-      <c r="K7" s="1" t="str">
+      <c r="K8" s="1" t="str">
         <f t="shared" si="2"/>
         <v>{"field":"create_time","labelRegexp":"记录创建时间","excelRangeType":"table"},</v>
       </c>
-      <c r="L7" s="1" t="str">
+      <c r="L8" s="1" t="str">
         <f t="shared" si="3"/>
         <v>{"field":"create_time","width":150},</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16.5">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:14" ht="16.5">
+      <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B9" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C9" s="21">
         <v>25</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="11" t="s">
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="22" t="str">
+      <c r="I9" s="22" t="str">
         <f t="shared" si="0"/>
         <v>create_user varchar(25) NOT NULL ,</v>
       </c>
-      <c r="J8" s="1" t="str">
+      <c r="J9" s="1" t="str">
         <f t="shared" si="1"/>
         <v>{"field":"create_user","name":"记录创建人","dataType":"varchar"},</v>
       </c>
-      <c r="K8" s="1" t="str">
+      <c r="K9" s="1" t="str">
         <f t="shared" si="2"/>
         <v>{"field":"create_user","labelRegexp":"记录创建人","excelRangeType":"table"},</v>
       </c>
-      <c r="L8" s="1" t="str">
-        <f>"{""field"":"""&amp;A8&amp;""",""width"":150},"</f>
+      <c r="L9" s="1" t="str">
+        <f>"{""field"":"""&amp;A9&amp;""",""width"":150},"</f>
         <v>{"field":"create_user","width":150},</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16.5">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:14" ht="16.5">
+      <c r="A10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C10" s="3">
         <v>0</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="11" t="s">
+      <c r="D10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="22" t="str">
+      <c r="I10" s="22" t="str">
         <f t="shared" si="0"/>
         <v>update_time datetime(0) NOT NULL ,</v>
       </c>
-      <c r="J9" s="1" t="str">
+      <c r="J10" s="1" t="str">
         <f t="shared" si="1"/>
         <v>{"field":"update_time","name":"记录更新时间","dataType":"datetime"},</v>
       </c>
-      <c r="K9" s="1" t="str">
+      <c r="K10" s="1" t="str">
         <f t="shared" si="2"/>
         <v>{"field":"update_time","labelRegexp":"记录更新时间","excelRangeType":"table"},</v>
       </c>
-      <c r="L9" s="1" t="str">
+      <c r="L10" s="1" t="str">
         <f t="shared" si="3"/>
         <v>{"field":"update_time","width":150},</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16.5">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:14" ht="16.5">
+      <c r="A11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B11" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C11" s="21">
         <v>25</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="11" t="s">
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H11" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="22" t="str">
+      <c r="I11" s="22" t="str">
         <f t="shared" si="0"/>
         <v>update_user varchar(25) NOT NULL ,</v>
       </c>
-      <c r="J10" s="1" t="str">
+      <c r="J11" s="1" t="str">
         <f t="shared" si="1"/>
         <v>{"field":"update_user","name":"记录更新人","dataType":"varchar"},</v>
       </c>
-      <c r="K10" s="1" t="str">
+      <c r="K11" s="1" t="str">
         <f t="shared" si="2"/>
         <v>{"field":"update_user","labelRegexp":"记录更新人","excelRangeType":"table"},</v>
       </c>
-      <c r="L10" s="1" t="str">
+      <c r="L11" s="1" t="str">
         <f t="shared" si="3"/>
         <v>{"field":"update_user","width":150},</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16.5">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:14" ht="16.5">
+      <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C12" s="3">
         <v>11</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="22" t="str">
+      <c r="I12" s="22" t="str">
         <f t="shared" si="0"/>
         <v>version int(11) NOT NULL DEFAULT 0,</v>
       </c>
-      <c r="J11" s="1" t="str">
+      <c r="J12" s="1" t="str">
         <f t="shared" si="1"/>
         <v>{"field":"version","name":"数据版本号","dataType":"int"},</v>
       </c>
-      <c r="K11" s="1" t="str">
+      <c r="K12" s="1" t="str">
         <f t="shared" si="2"/>
         <v>{"field":"version","labelRegexp":"数据版本号","excelRangeType":"table"},</v>
       </c>
-      <c r="L11" s="1" t="str">
+      <c r="L12" s="1" t="str">
         <f t="shared" si="3"/>
         <v>{"field":"version","width":150},</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="I12" s="1" t="str">
+    <row r="13" spans="1:14">
+      <c r="I13" s="1" t="str">
         <f>"PRIMARY KEY (`id`) USING BTREE)"</f>
         <v>PRIMARY KEY (`id`) USING BTREE)</v>
       </c>
